--- a/Scoring factors.xlsx
+++ b/Scoring factors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2c3d417d339670cb/Documents/GitHub/preliminary_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{1BDF51E7-5E11-4E99-AA4A-5DD579AE109A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7D009C0-036E-4DA6-900E-C8B17992FBD1}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="8_{1BDF51E7-5E11-4E99-AA4A-5DD579AE109A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9056626-79D0-41E9-BCA0-E8BC29A666B7}"/>
   <bookViews>
-    <workbookView xWindow="3760" yWindow="2290" windowWidth="15650" windowHeight="8890" tabRatio="864" firstSheet="5" activeTab="7" xr2:uid="{7BAB5CB3-E514-4AC3-9A35-1DA93A51C3CB}"/>
+    <workbookView xWindow="38310" yWindow="0" windowWidth="19380" windowHeight="20970" tabRatio="864" firstSheet="13" activeTab="14" xr2:uid="{7BAB5CB3-E514-4AC3-9A35-1DA93A51C3CB}"/>
   </bookViews>
   <sheets>
     <sheet name="PowerQuery &gt;&gt;&gt;" sheetId="20" r:id="rId1"/>
@@ -26,6 +26,14 @@
     <sheet name="Sample_Patient_Weighted" sheetId="34" r:id="rId11"/>
     <sheet name="Sample_Patient_Norm" sheetId="13" r:id="rId12"/>
     <sheet name="Sample_Patient_Norm_Dif" sheetId="14" r:id="rId13"/>
+    <sheet name="CHECKS &gt;&gt;&gt;" sheetId="36" r:id="rId14"/>
+    <sheet name="NUTRITION_CHECK" sheetId="35" r:id="rId15"/>
+    <sheet name="MOVEMENT_CHECK" sheetId="38" r:id="rId16"/>
+    <sheet name="SLEEP_CHECK" sheetId="39" r:id="rId17"/>
+    <sheet name="STRESS_CHECK" sheetId="40" r:id="rId18"/>
+    <sheet name="COGNITIVE_CHECK" sheetId="41" r:id="rId19"/>
+    <sheet name="CONNECTION_CHECK" sheetId="42" r:id="rId20"/>
+    <sheet name="CORE_CHECK" sheetId="43" r:id="rId21"/>
   </sheets>
   <definedNames>
     <definedName name="CC_Marker_Norm">Map!$I$16</definedName>
@@ -57,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2385" uniqueCount="808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2443" uniqueCount="817">
   <si>
     <t>Survey</t>
   </si>
@@ -2481,6 +2489,69 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>RAW_WEIGHT</t>
+  </si>
+  <si>
+    <t>COUNT_MARKERS</t>
+  </si>
+  <si>
+    <t>COUNT_METRICS</t>
+  </si>
+  <si>
+    <t>MARKER_METRIC_TOTAL</t>
+  </si>
+  <si>
+    <t>COUNT_COMPLEX</t>
+  </si>
+  <si>
+    <t>COUNT_STANDARD</t>
+  </si>
+  <si>
+    <t>SURVEY_TOTAL</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Note: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Max for women is 260, but max for men is 258 due to progesterone being a female-only marker</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Note: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Max for women is 143, but max for men is 140 due to progesterone being a female-only marker</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2495,7 +2566,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -2522,6 +2593,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF7C37EF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2545,7 +2622,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2560,13 +2637,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="52">
+  <dxfs count="55">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -2586,6 +2666,57 @@
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="double">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="1">
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <diagonal style="medium">
+          <color auto="1"/>
+        </diagonal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <horizontal style="dashed">
+          <color rgb="FFC7F475"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2805,16 +2936,22 @@
       </border>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+  <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Table Style 1" pivot="0" count="3" xr9:uid="{98515462-0323-4023-B745-A93970CE856C}">
-      <tableStyleElement type="wholeTable" dxfId="51"/>
-      <tableStyleElement type="headerRow" dxfId="50"/>
-      <tableStyleElement type="totalRow" dxfId="49"/>
+      <tableStyleElement type="wholeTable" dxfId="54"/>
+      <tableStyleElement type="headerRow" dxfId="53"/>
+      <tableStyleElement type="totalRow" dxfId="52"/>
+    </tableStyle>
+    <tableStyle name="Table Style 1 2" pivot="0" count="3" xr9:uid="{3E1C38ED-B173-47E8-B88D-6A8D0DE93291}">
+      <tableStyleElement type="wholeTable" dxfId="4"/>
+      <tableStyleElement type="headerRow" dxfId="3"/>
+      <tableStyleElement type="totalRow" dxfId="2"/>
     </tableStyle>
   </tableStyles>
   <colors>
     <mruColors>
       <color rgb="FFFFC1C1"/>
+      <color rgb="FFFFFFCC"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2826,6 +2963,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2847,25 +2988,25 @@
   <autoFilter ref="B2:I75" xr:uid="{DEF8B5F9-CB85-4F0E-9D6E-0806D70934C2}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{F910B4AF-3A17-4907-9BE6-D8A4488001F9}" name="Marker" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{F1DAED2C-C6A2-444F-BD4F-78A182775170}" name="Healthful Nutrition Weight" totalsRowFunction="sum" dataDxfId="15">
+    <tableColumn id="2" xr3:uid="{F1DAED2C-C6A2-444F-BD4F-78A182775170}" name="Healthful Nutrition Weight" totalsRowFunction="sum" dataDxfId="18">
       <calculatedColumnFormula>VLOOKUP($B3,FactorScores[],3,FALSE)*Markers_Raw_Max[[#This Row],[Healthful Nutrition Weight]]*HN_Marker_Norm</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{9CDB5431-5C5B-4A43-AAC1-7CCBCB593474}" name="Movement + Exercise Weight" totalsRowFunction="sum" dataDxfId="14">
+    <tableColumn id="3" xr3:uid="{9CDB5431-5C5B-4A43-AAC1-7CCBCB593474}" name="Movement + Exercise Weight" totalsRowFunction="sum" dataDxfId="17">
       <calculatedColumnFormula>VLOOKUP($B3,FactorScores[],3,FALSE)*Markers_Raw_Max[[#This Row],[Movement + Exercise Weight]]*ME_Marker_Norm</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{B7417B1A-05A0-4E65-811C-07F70319FF97}" name="Restorative Sleep Weight" totalsRowFunction="sum" dataDxfId="13">
+    <tableColumn id="4" xr3:uid="{B7417B1A-05A0-4E65-811C-07F70319FF97}" name="Restorative Sleep Weight" totalsRowFunction="sum" dataDxfId="16">
       <calculatedColumnFormula>VLOOKUP($B3,FactorScores[],3,FALSE)*Markers_Raw_Max[[#This Row],[Restorative Sleep Weight]]*RS_Marker_Norm</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{0581AB75-2367-4BC5-BE5C-47E374A3076F}" name="Stress Management Weight" totalsRowFunction="sum" dataDxfId="12">
+    <tableColumn id="5" xr3:uid="{0581AB75-2367-4BC5-BE5C-47E374A3076F}" name="Stress Management Weight" totalsRowFunction="sum" dataDxfId="15">
       <calculatedColumnFormula>VLOOKUP($B3,FactorScores[],3,FALSE)*Markers_Raw_Max[[#This Row],[Stress Management Weight]]*SM_Marker_Norm</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{E6ADCD91-A16F-445A-82CE-E1A1CEA47724}" name="Cognitive Health Weight" totalsRowFunction="sum" dataDxfId="11">
+    <tableColumn id="6" xr3:uid="{E6ADCD91-A16F-445A-82CE-E1A1CEA47724}" name="Cognitive Health Weight" totalsRowFunction="sum" dataDxfId="14">
       <calculatedColumnFormula>VLOOKUP($B3,FactorScores[],3,FALSE)*Markers_Raw_Max[[#This Row],[Cognitive Health Weight]]*CH_Marker_Norm</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{233B0D83-EDB7-4E30-AC35-F94A5C1046E3}" name="Connection + Purpose Weight" totalsRowFunction="sum" dataDxfId="10">
+    <tableColumn id="7" xr3:uid="{233B0D83-EDB7-4E30-AC35-F94A5C1046E3}" name="Connection + Purpose Weight" totalsRowFunction="sum" dataDxfId="13">
       <calculatedColumnFormula>VLOOKUP($B3,FactorScores[],3,FALSE)*Markers_Raw_Max[[#This Row],[Connection + Purpose Weight]]*CP_Marker_Norm</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{F3DBF80A-92BC-4A3B-A0A2-DCE05CA7C761}" name="Core Care Weight" totalsRowFunction="sum" dataDxfId="9">
+    <tableColumn id="8" xr3:uid="{F3DBF80A-92BC-4A3B-A0A2-DCE05CA7C761}" name="Core Care Weight" totalsRowFunction="sum" dataDxfId="12">
       <calculatedColumnFormula>VLOOKUP($B3,FactorScores[],3,FALSE)*Markers_Raw_Max[[#This Row],[Core Care Weight]]*CC_Marker_Norm</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2877,29 +3018,197 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{70930A60-A738-4E0B-A314-9812F2043676}" name="Sample_Patient_Norm_Dif" displayName="Sample_Patient_Norm_Dif" ref="B2:I75" totalsRowShown="0">
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{10B63309-EE1D-4F72-B175-8D0E568B1BA6}" name="Marker"/>
-    <tableColumn id="2" xr3:uid="{3C4E14EA-7766-4B5E-9EFF-2944D22BF227}" name="Healthful Nutrition Weight" dataDxfId="8">
+    <tableColumn id="2" xr3:uid="{3C4E14EA-7766-4B5E-9EFF-2944D22BF227}" name="Healthful Nutrition Weight" dataDxfId="11">
       <calculatedColumnFormula>FactorPillarNormalized[[#This Row],[Healthful Nutrition Weight]]-PatientValues[[#This Row],[Healthful Nutrition Weight]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{280E2E6C-70AD-4961-AC50-BA48DCE94B27}" name="Movement + Exercise Weight" dataDxfId="7">
+    <tableColumn id="3" xr3:uid="{280E2E6C-70AD-4961-AC50-BA48DCE94B27}" name="Movement + Exercise Weight" dataDxfId="10">
       <calculatedColumnFormula>FactorPillarNormalized[[#This Row],[Movement + Exercise Weight]]-PatientValues[[#This Row],[Movement + Exercise Weight]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{93E80520-215E-427F-AEC2-BF0AB79BDDB0}" name="Restorative Sleep Weight" dataDxfId="6">
+    <tableColumn id="4" xr3:uid="{93E80520-215E-427F-AEC2-BF0AB79BDDB0}" name="Restorative Sleep Weight" dataDxfId="9">
       <calculatedColumnFormula>FactorPillarNormalized[[#This Row],[Restorative Sleep Weight]]-PatientValues[[#This Row],[Restorative Sleep Weight]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{B04ED05F-19D8-4A88-B0A2-084CE54637C2}" name="Stress Management Weight" dataDxfId="5">
+    <tableColumn id="5" xr3:uid="{B04ED05F-19D8-4A88-B0A2-084CE54637C2}" name="Stress Management Weight" dataDxfId="8">
       <calculatedColumnFormula>VLOOKUP(Sample_Patient_Norm!$B3,FactorScores[],3,FALSE)*Markers_Raw_Max[[#This Row],[Stress Management Weight]]*SM_Marker_Norm</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{3969BA3C-17E1-4F50-8CD1-1E477A4BCA2C}" name="Cognitive Health Weight" dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{3969BA3C-17E1-4F50-8CD1-1E477A4BCA2C}" name="Cognitive Health Weight" dataDxfId="7">
       <calculatedColumnFormula>VLOOKUP(Sample_Patient_Norm!$B3,FactorScores[],3,FALSE)*Markers_Raw_Max[[#This Row],[Cognitive Health Weight]]*CH_Marker_Norm</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{D586E7C7-8F5E-4147-B567-8697181D1C01}" name="Connection + Purpose Weight" dataDxfId="3">
+    <tableColumn id="7" xr3:uid="{D586E7C7-8F5E-4147-B567-8697181D1C01}" name="Connection + Purpose Weight" dataDxfId="6">
       <calculatedColumnFormula>VLOOKUP(Sample_Patient_Norm!$B3,FactorScores[],3,FALSE)*Markers_Raw_Max[[#This Row],[Connection + Purpose Weight]]*CP_Marker_Norm</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{B62BA66B-10D2-4366-8398-6D132B4A0850}" name="Core Care Weight" dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{B62BA66B-10D2-4366-8398-6D132B4A0850}" name="Core Care Weight" dataDxfId="5">
       <calculatedColumnFormula>VLOOKUP(Sample_Patient_Norm!$B3,FactorScores[],3,FALSE)*Markers_Raw_Max[[#This Row],[Core Care Weight]]*CC_Marker_Norm</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{97B39CEA-CE06-4294-AE49-40D26FF5CF3F}" name="Table5" displayName="Table5" ref="B2:H24" totalsRowCount="1">
+  <autoFilter ref="B2:H23" xr:uid="{97B39CEA-CE06-4294-AE49-40D26FF5CF3F}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{608A5A26-512C-4989-8932-7934795C658C}" name="RAW_WEIGHT" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{72C6598B-EABA-4C2F-B8AB-5D7C794BCD65}" name="COUNT_MARKERS"/>
+    <tableColumn id="3" xr3:uid="{C4929766-CCA1-4A91-B758-B1C32B0939B1}" name="COUNT_METRICS"/>
+    <tableColumn id="4" xr3:uid="{B9D018B7-A853-4042-B8E9-95FD809DA8E0}" name="MARKER_METRIC_TOTAL" totalsRowFunction="sum"/>
+    <tableColumn id="5" xr3:uid="{5A049FE4-4D2B-4B90-A7FB-13D591F1248E}" name="COUNT_COMPLEX"/>
+    <tableColumn id="6" xr3:uid="{94B8E3AD-7AA7-4806-A81A-20EEB3BE6ECA}" name="COUNT_STANDARD"/>
+    <tableColumn id="7" xr3:uid="{87BDE9F7-408F-4DD1-9478-0B207FDC97ED}" name="SURVEY_TOTAL" totalsRowFunction="sum"/>
+  </tableColumns>
+  <tableStyleInfo name="Table Style 1 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{A9CDF479-B790-4886-A5AF-9D84D67B4FDC}" name="Table512" displayName="Table512" ref="B2:H24" totalsRowCount="1">
+  <autoFilter ref="B2:H23" xr:uid="{97B39CEA-CE06-4294-AE49-40D26FF5CF3F}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{A9364903-03CF-4AE5-BEBB-FCB6F256301C}" name="RAW_WEIGHT" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{29493AAC-67EA-4BC4-BB07-CE360D9ABAA7}" name="COUNT_MARKERS"/>
+    <tableColumn id="3" xr3:uid="{5E195F0E-0223-43DB-81BD-CF7385423DCF}" name="COUNT_METRICS"/>
+    <tableColumn id="4" xr3:uid="{2750E800-E42C-4B8B-BA4C-20AD008A9F50}" name="MARKER_METRIC_TOTAL" totalsRowFunction="sum"/>
+    <tableColumn id="5" xr3:uid="{F614B0AC-F1EB-412C-99A4-7CBAEF9563F5}" name="COUNT_COMPLEX"/>
+    <tableColumn id="6" xr3:uid="{9F2A27D7-F195-4583-B0AB-5A356F806A39}" name="COUNT_STANDARD"/>
+    <tableColumn id="7" xr3:uid="{F3C2237D-2C43-4275-BBF3-9B20382A5FD1}" name="SURVEY_TOTAL" totalsRowFunction="sum"/>
+  </tableColumns>
+  <tableStyleInfo name="Table Style 1 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{E250A78A-FD82-43D7-81CF-9424C1060CEC}" name="Table51213" displayName="Table51213" ref="B2:H24" totalsRowCount="1">
+  <autoFilter ref="B2:H23" xr:uid="{97B39CEA-CE06-4294-AE49-40D26FF5CF3F}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{DDF50182-4911-4F2F-B95E-05A616FDFFC7}" name="RAW_WEIGHT" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{B3FC15E9-0559-4ADF-8E0D-B6373DB670BD}" name="COUNT_MARKERS"/>
+    <tableColumn id="3" xr3:uid="{AD25DB3C-18C5-4CF8-9461-D362E3868B70}" name="COUNT_METRICS"/>
+    <tableColumn id="4" xr3:uid="{C52CD051-A3E1-4971-A8FF-8CB691BA8AC7}" name="MARKER_METRIC_TOTAL" totalsRowFunction="sum"/>
+    <tableColumn id="5" xr3:uid="{C2F99B5A-214F-45C7-AB36-9602B5E552A5}" name="COUNT_COMPLEX"/>
+    <tableColumn id="6" xr3:uid="{DF194006-E67E-4327-BDE4-E91BA1EED462}" name="COUNT_STANDARD"/>
+    <tableColumn id="7" xr3:uid="{21DD399D-4C8E-48F7-A8C1-8B29A4169B20}" name="SURVEY_TOTAL" totalsRowFunction="sum"/>
+  </tableColumns>
+  <tableStyleInfo name="Table Style 1 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{D096182B-6674-4EC6-8DBB-A16E457D624E}" name="Table5121314" displayName="Table5121314" ref="B2:H24" totalsRowCount="1">
+  <autoFilter ref="B2:H23" xr:uid="{97B39CEA-CE06-4294-AE49-40D26FF5CF3F}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{043793CF-3E09-4944-A981-B8276A51EB3E}" name="RAW_WEIGHT" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{3667A5A5-0828-4897-AD27-D14D313F5DFB}" name="COUNT_MARKERS"/>
+    <tableColumn id="3" xr3:uid="{AFB3EF05-EBF9-4D64-B62C-E75A4A1BC54B}" name="COUNT_METRICS"/>
+    <tableColumn id="4" xr3:uid="{F8807829-AAF8-4978-8074-E9B806DEEFAC}" name="MARKER_METRIC_TOTAL" totalsRowFunction="sum"/>
+    <tableColumn id="5" xr3:uid="{FDDEAEE5-0838-4FF3-9004-C59392D95316}" name="COUNT_COMPLEX"/>
+    <tableColumn id="6" xr3:uid="{B3D6F417-FE44-4252-80CA-19EA9823A1C6}" name="COUNT_STANDARD"/>
+    <tableColumn id="7" xr3:uid="{D2828B87-6CEF-44F2-B502-09050F9DE711}" name="SURVEY_TOTAL" totalsRowFunction="sum"/>
+  </tableColumns>
+  <tableStyleInfo name="Table Style 1 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{BFA1B96A-FDB7-42B0-AA91-502D02468F45}" name="Table512131415" displayName="Table512131415" ref="B2:H24" totalsRowCount="1">
+  <autoFilter ref="B2:H23" xr:uid="{97B39CEA-CE06-4294-AE49-40D26FF5CF3F}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{96E3AB07-C533-4D55-95DD-EFDC6A318121}" name="RAW_WEIGHT" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{A5396269-DBDB-49AE-8359-FBB576542393}" name="COUNT_MARKERS"/>
+    <tableColumn id="3" xr3:uid="{31A330BB-2AD4-4FE3-8263-E2410B64FAE8}" name="COUNT_METRICS"/>
+    <tableColumn id="4" xr3:uid="{FDECA0C3-029D-4812-BCAC-810CDC7E99A0}" name="MARKER_METRIC_TOTAL" totalsRowFunction="sum"/>
+    <tableColumn id="5" xr3:uid="{9BCB9E2C-7693-4609-9D10-996949A1AE46}" name="COUNT_COMPLEX"/>
+    <tableColumn id="6" xr3:uid="{A2CBE505-94AB-481E-8C0C-A638821C46C4}" name="COUNT_STANDARD"/>
+    <tableColumn id="7" xr3:uid="{C66448DD-4427-4DBE-9F8D-28582CC1A3ED}" name="SURVEY_TOTAL" totalsRowFunction="sum"/>
+  </tableColumns>
+  <tableStyleInfo name="Table Style 1 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{5DDB71C9-AA5A-4C86-BDB7-FC62126B4205}" name="Table51213141516" displayName="Table51213141516" ref="B2:H24" totalsRowCount="1">
+  <autoFilter ref="B2:H23" xr:uid="{97B39CEA-CE06-4294-AE49-40D26FF5CF3F}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{72795425-5B8A-4624-A4C1-AFDE3730B4A0}" name="RAW_WEIGHT" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{30B74E9B-CF48-4D97-B612-F5E8D9005BB1}" name="COUNT_MARKERS"/>
+    <tableColumn id="3" xr3:uid="{EDA3C9CE-76A2-4718-837D-B2724BC043D2}" name="COUNT_METRICS"/>
+    <tableColumn id="4" xr3:uid="{8A3EBCEB-EF67-422D-B3CE-166FC248846B}" name="MARKER_METRIC_TOTAL" totalsRowFunction="sum"/>
+    <tableColumn id="5" xr3:uid="{C3908294-D5EE-46E2-9903-F7EED2ED65AA}" name="COUNT_COMPLEX"/>
+    <tableColumn id="6" xr3:uid="{2B295A78-233F-4659-9C8A-3F521E95EC6A}" name="COUNT_STANDARD"/>
+    <tableColumn id="7" xr3:uid="{4B11D957-60A2-46E3-8C36-8E47CA16EC4E}" name="SURVEY_TOTAL" totalsRowFunction="sum"/>
+  </tableColumns>
+  <tableStyleInfo name="Table Style 1 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{AA363AA4-B72D-4223-941C-48B07E16FD6C}" name="Table5121314151617" displayName="Table5121314151617" ref="B2:H24" totalsRowCount="1">
+  <autoFilter ref="B2:H23" xr:uid="{97B39CEA-CE06-4294-AE49-40D26FF5CF3F}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{17C28BAA-39AA-419F-B661-32831601E9FF}" name="RAW_WEIGHT" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{72A6A2AD-47A3-42F6-A0CB-76E530CD9DC8}" name="COUNT_MARKERS"/>
+    <tableColumn id="3" xr3:uid="{3C711673-657E-42CE-A9FE-BD1982A0BAB1}" name="COUNT_METRICS"/>
+    <tableColumn id="4" xr3:uid="{08D94198-DF58-4571-BC6E-3802CDDF235C}" name="MARKER_METRIC_TOTAL" totalsRowFunction="sum"/>
+    <tableColumn id="5" xr3:uid="{72A9EB72-266E-4CD5-B75B-F0AAD6B71E46}" name="COUNT_COMPLEX"/>
+    <tableColumn id="6" xr3:uid="{75CE2F96-49F7-45CB-B49A-0B9E6049A95F}" name="COUNT_STANDARD"/>
+    <tableColumn id="7" xr3:uid="{34438DC9-EDF9-40CD-95AD-57A282CCA831}" name="SURVEY_TOTAL" totalsRowFunction="sum"/>
+  </tableColumns>
+  <tableStyleInfo name="Table Style 1 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2934,29 +3243,29 @@
   </autoFilter>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{F8C11330-056A-467E-8B0C-9062F8655C6C}" name="Pillar"/>
-    <tableColumn id="2" xr3:uid="{B746B74E-8E03-4243-9822-E4B77D890AD5}" name="PillarWeight" dataDxfId="48"/>
-    <tableColumn id="3" xr3:uid="{131C71CF-B69F-4408-BCC6-7CC72F5677F0}" name="Marker %" dataDxfId="47"/>
-    <tableColumn id="4" xr3:uid="{21942E5C-3142-439E-AF89-2BA724595B31}" name="Survey %" dataDxfId="46"/>
-    <tableColumn id="5" xr3:uid="{9929A771-DACD-484E-862B-6BCCDCE2D1EC}" name="Education %" dataDxfId="45"/>
-    <tableColumn id="6" xr3:uid="{F102C24D-006C-4111-B93B-2A418FAF793A}" name="Marker Max" dataDxfId="44"/>
-    <tableColumn id="7" xr3:uid="{120010EB-624E-41A2-A207-0F4178521BD7}" name="Survey Max" dataDxfId="43"/>
-    <tableColumn id="8" xr3:uid="{1F0B2DF1-6A3A-4708-AD91-9338832F0D49}" name="Education Max" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{B746B74E-8E03-4243-9822-E4B77D890AD5}" name="PillarWeight" dataDxfId="51"/>
+    <tableColumn id="3" xr3:uid="{131C71CF-B69F-4408-BCC6-7CC72F5677F0}" name="Marker %" dataDxfId="50"/>
+    <tableColumn id="4" xr3:uid="{21942E5C-3142-439E-AF89-2BA724595B31}" name="Survey %" dataDxfId="49"/>
+    <tableColumn id="5" xr3:uid="{9929A771-DACD-484E-862B-6BCCDCE2D1EC}" name="Education %" dataDxfId="48"/>
+    <tableColumn id="6" xr3:uid="{F102C24D-006C-4111-B93B-2A418FAF793A}" name="Marker Max" dataDxfId="47"/>
+    <tableColumn id="7" xr3:uid="{120010EB-624E-41A2-A207-0F4178521BD7}" name="Survey Max" dataDxfId="46"/>
+    <tableColumn id="8" xr3:uid="{1F0B2DF1-6A3A-4708-AD91-9338832F0D49}" name="Education Max" dataDxfId="45"/>
     <tableColumn id="9" xr3:uid="{757E5AB0-83E6-402F-B2A5-A79F712C4926}" name="Marker Norm Mult" dataCellStyle="Comma">
       <calculatedColumnFormula>100/PillarWeights[[#This Row],[Marker Max]]*PillarWeights[[#This Row],[Marker %]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{055CE9AD-D854-4ACD-92E0-67EF16EB6969}" name="Survey Norm Mult" dataDxfId="41" dataCellStyle="Comma">
+    <tableColumn id="10" xr3:uid="{055CE9AD-D854-4ACD-92E0-67EF16EB6969}" name="Survey Norm Mult" dataDxfId="44" dataCellStyle="Comma">
       <calculatedColumnFormula>100/PillarWeights[[#This Row],[Survey Max]]*PillarWeights[[#This Row],[Survey %]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{3D98E22B-0DA9-40A6-89D4-5754D8EE95B7}" name="Education Norm Mult" dataDxfId="40" dataCellStyle="Comma">
+    <tableColumn id="11" xr3:uid="{3D98E22B-0DA9-40A6-89D4-5754D8EE95B7}" name="Education Norm Mult" dataDxfId="43" dataCellStyle="Comma">
       <calculatedColumnFormula>100/PillarWeights[[#This Row],[Education Max]]*PillarWeights[[#This Row],[Education %]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{9BC4E747-929A-46D8-A39B-D391CDA8C267}" name="Marker Norm Max" dataDxfId="39" dataCellStyle="Comma">
+    <tableColumn id="12" xr3:uid="{9BC4E747-929A-46D8-A39B-D391CDA8C267}" name="Marker Norm Max" dataDxfId="42" dataCellStyle="Comma">
       <calculatedColumnFormula>PillarWeights[[#This Row],[Marker Norm Mult]]*PillarWeights[[#This Row],[Marker Max]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{00398716-A18A-4A7B-9806-011B8184CCFA}" name="Survey Norm Max" dataDxfId="38" dataCellStyle="Comma">
+    <tableColumn id="13" xr3:uid="{00398716-A18A-4A7B-9806-011B8184CCFA}" name="Survey Norm Max" dataDxfId="41" dataCellStyle="Comma">
       <calculatedColumnFormula>PillarWeights[[#This Row],[Survey Max]]*PillarWeights[[#This Row],[Survey Norm Mult]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{7E6AED03-AAEB-4A76-A74E-B38837482DF4}" name="Education Norm Max" dataDxfId="37" dataCellStyle="Comma">
+    <tableColumn id="14" xr3:uid="{7E6AED03-AAEB-4A76-A74E-B38837482DF4}" name="Education Norm Max" dataDxfId="40" dataCellStyle="Comma">
       <calculatedColumnFormula>PillarWeights[[#This Row],[Education Norm Mult]]*PillarWeights[[#This Row],[Education Max]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2987,46 +3296,46 @@
   </autoFilter>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{6A677C68-6E72-420B-9523-61DE0EE355FC}" name="Pillar"/>
-    <tableColumn id="10" xr3:uid="{91E217CD-2444-4A93-BF92-3A530B41804D}" name="Marker Raw" dataDxfId="36"/>
+    <tableColumn id="10" xr3:uid="{91E217CD-2444-4A93-BF92-3A530B41804D}" name="Marker Raw" dataDxfId="39"/>
     <tableColumn id="2" xr3:uid="{5226C5B9-105C-4989-BD84-799990111959}" name="Survey Raw"/>
     <tableColumn id="3" xr3:uid="{7172C116-5510-47F8-9BA8-EAF38A8C11E4}" name="Education Raw"/>
-    <tableColumn id="11" xr3:uid="{23246FC1-609F-484C-933E-E25123F4E09D}" name="Marker Norm" dataDxfId="35">
+    <tableColumn id="11" xr3:uid="{23246FC1-609F-484C-933E-E25123F4E09D}" name="Marker Norm" dataDxfId="38">
       <calculatedColumnFormula>Patient_Pillar_Potential[[#This Row],[Marker Raw]]*VLOOKUP(Patient_Pillar_Potential[[#This Row],[Pillar]],PillarWeights[#All],9,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{E19EF3BA-6889-452A-B025-3E9718957DB5}" name="Survey Norm" dataDxfId="34">
+    <tableColumn id="4" xr3:uid="{E19EF3BA-6889-452A-B025-3E9718957DB5}" name="Survey Norm" dataDxfId="37">
       <calculatedColumnFormula>Patient_Pillar_Potential[[#This Row],[Survey Raw]]*VLOOKUP(Patient_Pillar_Potential[[#This Row],[Pillar]],PillarWeights[#All],10,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{D12C887C-CEAA-4119-9628-4CE17FA0AD73}" name="Education Norm" dataDxfId="33">
+    <tableColumn id="5" xr3:uid="{D12C887C-CEAA-4119-9628-4CE17FA0AD73}" name="Education Norm" dataDxfId="36">
       <calculatedColumnFormula>Patient_Pillar_Potential[[#This Row],[Education Raw]]*VLOOKUP(Patient_Pillar_Potential[[#This Row],[Pillar]],PillarWeights[#All],11,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{01005A68-4FB9-42A7-9767-1F394EA8B7A8}" name="Total Norm" dataDxfId="32">
+    <tableColumn id="14" xr3:uid="{01005A68-4FB9-42A7-9767-1F394EA8B7A8}" name="Total Norm" dataDxfId="35">
       <calculatedColumnFormula>Patient_Pillar_Potential[[#This Row],[Marker Norm]]+Patient_Pillar_Potential[[#This Row],[Survey Norm]]+Patient_Pillar_Potential[[#This Row],[Education Norm]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{0C6229A1-FDEF-467F-87FA-CB7200020054}" name="Marker Norm Max" dataDxfId="31">
+    <tableColumn id="12" xr3:uid="{0C6229A1-FDEF-467F-87FA-CB7200020054}" name="Marker Norm Max" dataDxfId="34">
       <calculatedColumnFormula>VLOOKUP(Patient_Pillar_Potential[[#This Row],[Pillar]],PillarWeights[#All],12,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{5BAEF607-D648-47DF-9521-80EF7D476C55}" name="Survey Norm Max" dataDxfId="30">
+    <tableColumn id="6" xr3:uid="{5BAEF607-D648-47DF-9521-80EF7D476C55}" name="Survey Norm Max" dataDxfId="33">
       <calculatedColumnFormula>VLOOKUP(Patient_Pillar_Potential[[#This Row],[Pillar]],PillarWeights[#All],13,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{38E97279-1822-4DBE-8CB2-21A58A399455}" name="Education Norm Max" dataDxfId="29">
+    <tableColumn id="7" xr3:uid="{38E97279-1822-4DBE-8CB2-21A58A399455}" name="Education Norm Max" dataDxfId="32">
       <calculatedColumnFormula>VLOOKUP(Patient_Pillar_Potential[[#This Row],[Pillar]],PillarWeights[#All],14,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{40A8FA1D-1AEE-4225-A6BE-38828CE77D0A}" name="Total Norm Max" dataDxfId="28">
+    <tableColumn id="15" xr3:uid="{40A8FA1D-1AEE-4225-A6BE-38828CE77D0A}" name="Total Norm Max" dataDxfId="31">
       <calculatedColumnFormula>Patient_Pillar_Potential[[#This Row],[Marker Norm Max]]+Patient_Pillar_Potential[[#This Row],[Survey Norm Max]]+Patient_Pillar_Potential[[#This Row],[Education Norm Max]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{255457EB-8475-4AF2-972F-CE22DA7E4215}" name="Marker Norm Potential" dataDxfId="27">
+    <tableColumn id="13" xr3:uid="{255457EB-8475-4AF2-972F-CE22DA7E4215}" name="Marker Norm Potential" dataDxfId="30">
       <calculatedColumnFormula>Patient_Pillar_Potential[[#This Row],[Marker Norm Max]]-Patient_Pillar_Potential[[#This Row],[Marker Norm]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{373BC32B-7847-4EFA-B87B-7833DA87344F}" name="Survey Norm Potential" dataDxfId="26">
+    <tableColumn id="8" xr3:uid="{373BC32B-7847-4EFA-B87B-7833DA87344F}" name="Survey Norm Potential" dataDxfId="29">
       <calculatedColumnFormula>Patient_Pillar_Potential[[#This Row],[Survey Norm Max]]-Patient_Pillar_Potential[[#This Row],[Survey Norm]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{8DA94CD8-81DB-424B-8EAB-A9D3F6A7AC57}" name="Education Norm Potential" dataDxfId="25">
+    <tableColumn id="9" xr3:uid="{8DA94CD8-81DB-424B-8EAB-A9D3F6A7AC57}" name="Education Norm Potential" dataDxfId="28">
       <calculatedColumnFormula>VLOOKUP(Patient_Pillar_Potential[[#This Row],[Pillar]],PillarWeights[#All],14,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{0A3A691C-647F-4C75-A851-B467F3371E0A}" name="Total Norm Potential" dataDxfId="24">
+    <tableColumn id="16" xr3:uid="{0A3A691C-647F-4C75-A851-B467F3371E0A}" name="Total Norm Potential" dataDxfId="27">
       <calculatedColumnFormula>Patient_Pillar_Potential[[#This Row],[Total Norm Max]]-Patient_Pillar_Potential[[#This Row],[Total Norm]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{2D0C451A-C13C-419A-9818-A472D5E9B4D7}" name="PotentialPct" dataDxfId="23" dataCellStyle="Percent">
+    <tableColumn id="17" xr3:uid="{2D0C451A-C13C-419A-9818-A472D5E9B4D7}" name="PotentialPct" dataDxfId="26" dataCellStyle="Percent">
       <calculatedColumnFormula>(Patient_Pillar_Potential[[#This Row],[Marker Norm Max]]-Patient_Pillar_Potential[[#This Row],[Marker Norm]])/Patient_Pillar_Potential[[#This Row],[Marker Norm]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3118,25 +3427,25 @@
   <autoFilter ref="B2:I75" xr:uid="{DEF8B5F9-CB85-4F0E-9D6E-0806D70934C2}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{790D6658-E1A6-4499-9055-E93D412C8D7E}" name="Marker" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{70183FCB-4EA6-438E-B387-A36C94C3092B}" name="Healthful Nutrition Weight" totalsRowFunction="sum" dataDxfId="22">
+    <tableColumn id="2" xr3:uid="{70183FCB-4EA6-438E-B387-A36C94C3092B}" name="Healthful Nutrition Weight" totalsRowFunction="sum" dataDxfId="25">
       <calculatedColumnFormula>VLOOKUP($B3,FactorScores[],3,FALSE)*Markers_Raw_Max[[#This Row],[Healthful Nutrition Weight]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{A48FFAE1-E6BE-4844-857C-CF268289704B}" name="Movement + Exercise Weight" totalsRowFunction="sum" dataDxfId="21">
+    <tableColumn id="3" xr3:uid="{A48FFAE1-E6BE-4844-857C-CF268289704B}" name="Movement + Exercise Weight" totalsRowFunction="sum" dataDxfId="24">
       <calculatedColumnFormula>VLOOKUP($B3,FactorScores[],3,FALSE)*Markers_Raw_Max[[#This Row],[Movement + Exercise Weight]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{9D61316F-5224-4A48-A69B-D831F7D74023}" name="Restorative Sleep Weight" totalsRowFunction="sum" dataDxfId="20">
+    <tableColumn id="4" xr3:uid="{9D61316F-5224-4A48-A69B-D831F7D74023}" name="Restorative Sleep Weight" totalsRowFunction="sum" dataDxfId="23">
       <calculatedColumnFormula>VLOOKUP($B3,FactorScores[],3,FALSE)*Markers_Raw_Max[[#This Row],[Restorative Sleep Weight]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C7909BA0-113B-4E4E-BDCE-AC4EA49B2997}" name="Stress Management Weight" totalsRowFunction="sum" dataDxfId="19">
+    <tableColumn id="5" xr3:uid="{C7909BA0-113B-4E4E-BDCE-AC4EA49B2997}" name="Stress Management Weight" totalsRowFunction="sum" dataDxfId="22">
       <calculatedColumnFormula>VLOOKUP($B3,FactorScores[],3,FALSE)*Markers_Raw_Max[[#This Row],[Stress Management Weight]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{E61A3078-3C79-463E-AE2F-75FC31A57590}" name="Cognitive Health Weight" totalsRowFunction="sum" dataDxfId="18">
+    <tableColumn id="6" xr3:uid="{E61A3078-3C79-463E-AE2F-75FC31A57590}" name="Cognitive Health Weight" totalsRowFunction="sum" dataDxfId="21">
       <calculatedColumnFormula>VLOOKUP($B3,FactorScores[],3,FALSE)*Markers_Raw_Max[[#This Row],[Cognitive Health Weight]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{79B0EF9D-15BC-4D8D-B1BB-6FF0F617D0CB}" name="Connection + Purpose Weight" totalsRowFunction="sum" dataDxfId="17">
+    <tableColumn id="7" xr3:uid="{79B0EF9D-15BC-4D8D-B1BB-6FF0F617D0CB}" name="Connection + Purpose Weight" totalsRowFunction="sum" dataDxfId="20">
       <calculatedColumnFormula>VLOOKUP($B3,FactorScores[],3,FALSE)*Markers_Raw_Max[[#This Row],[Connection + Purpose Weight]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{79A41452-5A13-4A9F-B0F9-9B850DBED771}" name="Core Care Weight" totalsRowFunction="sum" dataDxfId="16">
+    <tableColumn id="8" xr3:uid="{79A41452-5A13-4A9F-B0F9-9B850DBED771}" name="Core Care Weight" totalsRowFunction="sum" dataDxfId="19">
       <calculatedColumnFormula>VLOOKUP($B3,FactorScores[],3,FALSE)*Markers_Raw_Max[[#This Row],[Core Care Weight]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -12029,6 +12338,2897 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0FD014B-2437-44E1-82EF-5A068D6925ED}">
+  <sheetPr>
+    <tabColor theme="1"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1CF768E-8E37-4D25-BDF3-CAA06CFCE00F}">
+  <sheetPr>
+    <tabColor rgb="FFFFFFCC"/>
+  </sheetPr>
+  <dimension ref="B2:H109"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38:D76"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="4" width="21.7265625" customWidth="1"/>
+    <col min="5" max="5" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="21.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>808</v>
+      </c>
+      <c r="C2" t="s">
+        <v>809</v>
+      </c>
+      <c r="D2" t="s">
+        <v>810</v>
+      </c>
+      <c r="E2" t="s">
+        <v>811</v>
+      </c>
+      <c r="F2" t="s">
+        <v>812</v>
+      </c>
+      <c r="G2" t="s">
+        <v>813</v>
+      </c>
+      <c r="H2" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>36</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>33</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>48</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>60</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>14</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>40</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>20</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>16</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>18</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>19</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24">
+        <f>SUBTOTAL(109,Table5[MARKER_METRIC_TOTAL])</f>
+        <v>260</v>
+      </c>
+      <c r="H24">
+        <f>SUBTOTAL(109,Table5[SURVEY_TOTAL])</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="13" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C32" s="14"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="14"/>
+    </row>
+    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D84">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D89">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D95">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D98">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D99">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D100">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D101">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D103">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D104">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D109">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB8E1281-590A-4362-911A-F584A6683D3D}">
+  <sheetPr>
+    <tabColor rgb="FFFFC1C1"/>
+  </sheetPr>
+  <dimension ref="B2:H24"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="4" width="21.7265625" customWidth="1"/>
+    <col min="5" max="5" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="21.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>808</v>
+      </c>
+      <c r="C2" t="s">
+        <v>809</v>
+      </c>
+      <c r="D2" t="s">
+        <v>810</v>
+      </c>
+      <c r="E2" t="s">
+        <v>811</v>
+      </c>
+      <c r="F2" t="s">
+        <v>812</v>
+      </c>
+      <c r="G2" t="s">
+        <v>813</v>
+      </c>
+      <c r="H2" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>18</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>25</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>12</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>42</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>16</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>18</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>19</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24">
+        <f>SUBTOTAL(109,Table512[MARKER_METRIC_TOTAL])</f>
+        <v>130</v>
+      </c>
+      <c r="H24">
+        <f>SUBTOTAL(109,Table512[SURVEY_TOTAL])</f>
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80E054EB-26BB-45EA-B3C3-9BE2A744ED6A}">
+  <sheetPr>
+    <tabColor theme="2" tint="-9.9978637043366805E-2"/>
+  </sheetPr>
+  <dimension ref="B2:H24"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="4" width="21.7265625" customWidth="1"/>
+    <col min="5" max="5" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="21.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>808</v>
+      </c>
+      <c r="C2" t="s">
+        <v>809</v>
+      </c>
+      <c r="D2" t="s">
+        <v>810</v>
+      </c>
+      <c r="E2" t="s">
+        <v>811</v>
+      </c>
+      <c r="F2" t="s">
+        <v>812</v>
+      </c>
+      <c r="G2" t="s">
+        <v>813</v>
+      </c>
+      <c r="H2" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>21</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>24</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>15</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>18</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>14</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>16</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>18</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>19</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24">
+        <f>SUBTOTAL(109,Table51213[MARKER_METRIC_TOTAL])</f>
+        <v>98</v>
+      </c>
+      <c r="H24">
+        <f>SUBTOTAL(109,Table51213[SURVEY_TOTAL])</f>
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{885A789A-5D2F-4B2A-AEC5-1CAC94DD003F}">
+  <sheetPr>
+    <tabColor theme="6" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="B2:H27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="4" width="21.7265625" customWidth="1"/>
+    <col min="5" max="5" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="21.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>808</v>
+      </c>
+      <c r="C2" t="s">
+        <v>809</v>
+      </c>
+      <c r="D2" t="s">
+        <v>810</v>
+      </c>
+      <c r="E2" t="s">
+        <v>811</v>
+      </c>
+      <c r="F2" t="s">
+        <v>812</v>
+      </c>
+      <c r="G2" t="s">
+        <v>813</v>
+      </c>
+      <c r="H2" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>27</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>44</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>30</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>30</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>16</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>18</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>19</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24">
+        <f>SUBTOTAL(109,Table5121314[MARKER_METRIC_TOTAL])</f>
+        <v>143</v>
+      </c>
+      <c r="H24">
+        <f>SUBTOTAL(109,Table5121314[SURVEY_TOTAL])</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="13" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>816</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AED0248-8B17-4457-A6A7-257CB167042D}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="B2:H24"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="4" width="21.7265625" customWidth="1"/>
+    <col min="5" max="5" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="21.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>808</v>
+      </c>
+      <c r="C2" t="s">
+        <v>809</v>
+      </c>
+      <c r="D2" t="s">
+        <v>810</v>
+      </c>
+      <c r="E2" t="s">
+        <v>811</v>
+      </c>
+      <c r="F2" t="s">
+        <v>812</v>
+      </c>
+      <c r="G2" t="s">
+        <v>813</v>
+      </c>
+      <c r="H2" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>30</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>36</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>42</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>16</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>16</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>18</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>19</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24">
+        <f>SUBTOTAL(109,Table512131415[MARKER_METRIC_TOTAL])</f>
+        <v>139</v>
+      </c>
+      <c r="H24">
+        <f>SUBTOTAL(109,Table512131415[SURVEY_TOTAL])</f>
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD06D8A-9D7A-4D7D-BF2E-7129C6F3484A}">
   <sheetPr>
@@ -12043,6 +15243,1096 @@
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E9F2A6-A6EB-42A1-A587-066A05C098D2}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="B2:H24"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="4" width="21.7265625" customWidth="1"/>
+    <col min="5" max="5" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="21.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>808</v>
+      </c>
+      <c r="C2" t="s">
+        <v>809</v>
+      </c>
+      <c r="D2" t="s">
+        <v>810</v>
+      </c>
+      <c r="E2" t="s">
+        <v>811</v>
+      </c>
+      <c r="F2" t="s">
+        <v>812</v>
+      </c>
+      <c r="G2" t="s">
+        <v>813</v>
+      </c>
+      <c r="H2" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>16</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>18</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>19</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24">
+        <f>SUBTOTAL(109,Table51213141516[MARKER_METRIC_TOTAL])</f>
+        <v>10</v>
+      </c>
+      <c r="H24">
+        <f>SUBTOTAL(109,Table51213141516[SURVEY_TOTAL])</f>
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03BECFDF-8162-4421-91CE-2A242EDEA183}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="B2:H24"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="4" width="21.7265625" customWidth="1"/>
+    <col min="5" max="5" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="21.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>808</v>
+      </c>
+      <c r="C2" t="s">
+        <v>809</v>
+      </c>
+      <c r="D2" t="s">
+        <v>810</v>
+      </c>
+      <c r="E2" t="s">
+        <v>811</v>
+      </c>
+      <c r="F2" t="s">
+        <v>812</v>
+      </c>
+      <c r="G2" t="s">
+        <v>813</v>
+      </c>
+      <c r="H2" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>16</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>8</v>
+      </c>
+      <c r="H8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>12</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>21</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>8</v>
+      </c>
+      <c r="H10">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>56</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>9</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>20</v>
+      </c>
+      <c r="H13">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>16</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>18</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>19</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24">
+        <f>SUBTOTAL(109,Table5121314151617[MARKER_METRIC_TOTAL])</f>
+        <v>137</v>
+      </c>
+      <c r="H24">
+        <f>SUBTOTAL(109,Table5121314151617[SURVEY_TOTAL])</f>
+        <v>382</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -20256,7 +24546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1337100-BEB5-448C-B9DA-1059900822A4}">
   <dimension ref="B2:M76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C63" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="C2" sqref="C2"/>

--- a/Scoring factors.xlsx
+++ b/Scoring factors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2c3d417d339670cb/Documents/GitHub/preliminary_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="8_{1BDF51E7-5E11-4E99-AA4A-5DD579AE109A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9056626-79D0-41E9-BCA0-E8BC29A666B7}"/>
+  <xr:revisionPtr revIDLastSave="91" documentId="8_{1BDF51E7-5E11-4E99-AA4A-5DD579AE109A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD96F703-302B-4D6F-97E7-AB01A881C8FE}"/>
   <bookViews>
-    <workbookView xWindow="38310" yWindow="0" windowWidth="19380" windowHeight="20970" tabRatio="864" firstSheet="13" activeTab="14" xr2:uid="{7BAB5CB3-E514-4AC3-9A35-1DA93A51C3CB}"/>
+    <workbookView xWindow="7770" yWindow="2020" windowWidth="28800" windowHeight="15370" tabRatio="864" firstSheet="15" activeTab="15" xr2:uid="{7BAB5CB3-E514-4AC3-9A35-1DA93A51C3CB}"/>
   </bookViews>
   <sheets>
     <sheet name="PowerQuery &gt;&gt;&gt;" sheetId="20" r:id="rId1"/>
@@ -2666,57 +2666,6 @@
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="double">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="1">
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <diagonal style="medium">
-          <color auto="1"/>
-        </diagonal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <horizontal style="dashed">
-          <color rgb="FFC7F475"/>
-        </horizontal>
-      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2912,6 +2861,57 @@
         <b/>
         <i val="0"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="double">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="1">
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <diagonal style="medium">
+          <color auto="1"/>
+        </diagonal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <horizontal style="dashed">
+          <color rgb="FFC7F475"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
       <border>
         <top style="double">
           <color auto="1"/>
@@ -2943,9 +2943,9 @@
       <tableStyleElement type="totalRow" dxfId="52"/>
     </tableStyle>
     <tableStyle name="Table Style 1 2" pivot="0" count="3" xr9:uid="{3E1C38ED-B173-47E8-B88D-6A8D0DE93291}">
-      <tableStyleElement type="wholeTable" dxfId="4"/>
-      <tableStyleElement type="headerRow" dxfId="3"/>
-      <tableStyleElement type="totalRow" dxfId="2"/>
+      <tableStyleElement type="wholeTable" dxfId="51"/>
+      <tableStyleElement type="headerRow" dxfId="50"/>
+      <tableStyleElement type="totalRow" dxfId="49"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2988,25 +2988,25 @@
   <autoFilter ref="B2:I75" xr:uid="{DEF8B5F9-CB85-4F0E-9D6E-0806D70934C2}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{F910B4AF-3A17-4907-9BE6-D8A4488001F9}" name="Marker" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{F1DAED2C-C6A2-444F-BD4F-78A182775170}" name="Healthful Nutrition Weight" totalsRowFunction="sum" dataDxfId="18">
+    <tableColumn id="2" xr3:uid="{F1DAED2C-C6A2-444F-BD4F-78A182775170}" name="Healthful Nutrition Weight" totalsRowFunction="sum" dataDxfId="15">
       <calculatedColumnFormula>VLOOKUP($B3,FactorScores[],3,FALSE)*Markers_Raw_Max[[#This Row],[Healthful Nutrition Weight]]*HN_Marker_Norm</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{9CDB5431-5C5B-4A43-AAC1-7CCBCB593474}" name="Movement + Exercise Weight" totalsRowFunction="sum" dataDxfId="17">
+    <tableColumn id="3" xr3:uid="{9CDB5431-5C5B-4A43-AAC1-7CCBCB593474}" name="Movement + Exercise Weight" totalsRowFunction="sum" dataDxfId="14">
       <calculatedColumnFormula>VLOOKUP($B3,FactorScores[],3,FALSE)*Markers_Raw_Max[[#This Row],[Movement + Exercise Weight]]*ME_Marker_Norm</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{B7417B1A-05A0-4E65-811C-07F70319FF97}" name="Restorative Sleep Weight" totalsRowFunction="sum" dataDxfId="16">
+    <tableColumn id="4" xr3:uid="{B7417B1A-05A0-4E65-811C-07F70319FF97}" name="Restorative Sleep Weight" totalsRowFunction="sum" dataDxfId="13">
       <calculatedColumnFormula>VLOOKUP($B3,FactorScores[],3,FALSE)*Markers_Raw_Max[[#This Row],[Restorative Sleep Weight]]*RS_Marker_Norm</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{0581AB75-2367-4BC5-BE5C-47E374A3076F}" name="Stress Management Weight" totalsRowFunction="sum" dataDxfId="15">
+    <tableColumn id="5" xr3:uid="{0581AB75-2367-4BC5-BE5C-47E374A3076F}" name="Stress Management Weight" totalsRowFunction="sum" dataDxfId="12">
       <calculatedColumnFormula>VLOOKUP($B3,FactorScores[],3,FALSE)*Markers_Raw_Max[[#This Row],[Stress Management Weight]]*SM_Marker_Norm</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{E6ADCD91-A16F-445A-82CE-E1A1CEA47724}" name="Cognitive Health Weight" totalsRowFunction="sum" dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{E6ADCD91-A16F-445A-82CE-E1A1CEA47724}" name="Cognitive Health Weight" totalsRowFunction="sum" dataDxfId="11">
       <calculatedColumnFormula>VLOOKUP($B3,FactorScores[],3,FALSE)*Markers_Raw_Max[[#This Row],[Cognitive Health Weight]]*CH_Marker_Norm</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{233B0D83-EDB7-4E30-AC35-F94A5C1046E3}" name="Connection + Purpose Weight" totalsRowFunction="sum" dataDxfId="13">
+    <tableColumn id="7" xr3:uid="{233B0D83-EDB7-4E30-AC35-F94A5C1046E3}" name="Connection + Purpose Weight" totalsRowFunction="sum" dataDxfId="10">
       <calculatedColumnFormula>VLOOKUP($B3,FactorScores[],3,FALSE)*Markers_Raw_Max[[#This Row],[Connection + Purpose Weight]]*CP_Marker_Norm</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{F3DBF80A-92BC-4A3B-A0A2-DCE05CA7C761}" name="Core Care Weight" totalsRowFunction="sum" dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{F3DBF80A-92BC-4A3B-A0A2-DCE05CA7C761}" name="Core Care Weight" totalsRowFunction="sum" dataDxfId="9">
       <calculatedColumnFormula>VLOOKUP($B3,FactorScores[],3,FALSE)*Markers_Raw_Max[[#This Row],[Core Care Weight]]*CC_Marker_Norm</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3018,25 +3018,25 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{70930A60-A738-4E0B-A314-9812F2043676}" name="Sample_Patient_Norm_Dif" displayName="Sample_Patient_Norm_Dif" ref="B2:I75" totalsRowShown="0">
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{10B63309-EE1D-4F72-B175-8D0E568B1BA6}" name="Marker"/>
-    <tableColumn id="2" xr3:uid="{3C4E14EA-7766-4B5E-9EFF-2944D22BF227}" name="Healthful Nutrition Weight" dataDxfId="11">
+    <tableColumn id="2" xr3:uid="{3C4E14EA-7766-4B5E-9EFF-2944D22BF227}" name="Healthful Nutrition Weight" dataDxfId="8">
       <calculatedColumnFormula>FactorPillarNormalized[[#This Row],[Healthful Nutrition Weight]]-PatientValues[[#This Row],[Healthful Nutrition Weight]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{280E2E6C-70AD-4961-AC50-BA48DCE94B27}" name="Movement + Exercise Weight" dataDxfId="10">
+    <tableColumn id="3" xr3:uid="{280E2E6C-70AD-4961-AC50-BA48DCE94B27}" name="Movement + Exercise Weight" dataDxfId="7">
       <calculatedColumnFormula>FactorPillarNormalized[[#This Row],[Movement + Exercise Weight]]-PatientValues[[#This Row],[Movement + Exercise Weight]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{93E80520-215E-427F-AEC2-BF0AB79BDDB0}" name="Restorative Sleep Weight" dataDxfId="9">
+    <tableColumn id="4" xr3:uid="{93E80520-215E-427F-AEC2-BF0AB79BDDB0}" name="Restorative Sleep Weight" dataDxfId="6">
       <calculatedColumnFormula>FactorPillarNormalized[[#This Row],[Restorative Sleep Weight]]-PatientValues[[#This Row],[Restorative Sleep Weight]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{B04ED05F-19D8-4A88-B0A2-084CE54637C2}" name="Stress Management Weight" dataDxfId="8">
+    <tableColumn id="5" xr3:uid="{B04ED05F-19D8-4A88-B0A2-084CE54637C2}" name="Stress Management Weight" dataDxfId="5">
       <calculatedColumnFormula>VLOOKUP(Sample_Patient_Norm!$B3,FactorScores[],3,FALSE)*Markers_Raw_Max[[#This Row],[Stress Management Weight]]*SM_Marker_Norm</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{3969BA3C-17E1-4F50-8CD1-1E477A4BCA2C}" name="Cognitive Health Weight" dataDxfId="7">
+    <tableColumn id="6" xr3:uid="{3969BA3C-17E1-4F50-8CD1-1E477A4BCA2C}" name="Cognitive Health Weight" dataDxfId="4">
       <calculatedColumnFormula>VLOOKUP(Sample_Patient_Norm!$B3,FactorScores[],3,FALSE)*Markers_Raw_Max[[#This Row],[Cognitive Health Weight]]*CH_Marker_Norm</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{D586E7C7-8F5E-4147-B567-8697181D1C01}" name="Connection + Purpose Weight" dataDxfId="6">
+    <tableColumn id="7" xr3:uid="{D586E7C7-8F5E-4147-B567-8697181D1C01}" name="Connection + Purpose Weight" dataDxfId="3">
       <calculatedColumnFormula>VLOOKUP(Sample_Patient_Norm!$B3,FactorScores[],3,FALSE)*Markers_Raw_Max[[#This Row],[Connection + Purpose Weight]]*CP_Marker_Norm</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{B62BA66B-10D2-4366-8398-6D132B4A0850}" name="Core Care Weight" dataDxfId="5">
+    <tableColumn id="8" xr3:uid="{B62BA66B-10D2-4366-8398-6D132B4A0850}" name="Core Care Weight" dataDxfId="2">
       <calculatedColumnFormula>VLOOKUP(Sample_Patient_Norm!$B3,FactorScores[],3,FALSE)*Markers_Raw_Max[[#This Row],[Core Care Weight]]*CC_Marker_Norm</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3243,29 +3243,29 @@
   </autoFilter>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{F8C11330-056A-467E-8B0C-9062F8655C6C}" name="Pillar"/>
-    <tableColumn id="2" xr3:uid="{B746B74E-8E03-4243-9822-E4B77D890AD5}" name="PillarWeight" dataDxfId="51"/>
-    <tableColumn id="3" xr3:uid="{131C71CF-B69F-4408-BCC6-7CC72F5677F0}" name="Marker %" dataDxfId="50"/>
-    <tableColumn id="4" xr3:uid="{21942E5C-3142-439E-AF89-2BA724595B31}" name="Survey %" dataDxfId="49"/>
-    <tableColumn id="5" xr3:uid="{9929A771-DACD-484E-862B-6BCCDCE2D1EC}" name="Education %" dataDxfId="48"/>
-    <tableColumn id="6" xr3:uid="{F102C24D-006C-4111-B93B-2A418FAF793A}" name="Marker Max" dataDxfId="47"/>
-    <tableColumn id="7" xr3:uid="{120010EB-624E-41A2-A207-0F4178521BD7}" name="Survey Max" dataDxfId="46"/>
-    <tableColumn id="8" xr3:uid="{1F0B2DF1-6A3A-4708-AD91-9338832F0D49}" name="Education Max" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{B746B74E-8E03-4243-9822-E4B77D890AD5}" name="PillarWeight" dataDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{131C71CF-B69F-4408-BCC6-7CC72F5677F0}" name="Marker %" dataDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{21942E5C-3142-439E-AF89-2BA724595B31}" name="Survey %" dataDxfId="46"/>
+    <tableColumn id="5" xr3:uid="{9929A771-DACD-484E-862B-6BCCDCE2D1EC}" name="Education %" dataDxfId="45"/>
+    <tableColumn id="6" xr3:uid="{F102C24D-006C-4111-B93B-2A418FAF793A}" name="Marker Max" dataDxfId="44"/>
+    <tableColumn id="7" xr3:uid="{120010EB-624E-41A2-A207-0F4178521BD7}" name="Survey Max" dataDxfId="43"/>
+    <tableColumn id="8" xr3:uid="{1F0B2DF1-6A3A-4708-AD91-9338832F0D49}" name="Education Max" dataDxfId="42"/>
     <tableColumn id="9" xr3:uid="{757E5AB0-83E6-402F-B2A5-A79F712C4926}" name="Marker Norm Mult" dataCellStyle="Comma">
       <calculatedColumnFormula>100/PillarWeights[[#This Row],[Marker Max]]*PillarWeights[[#This Row],[Marker %]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{055CE9AD-D854-4ACD-92E0-67EF16EB6969}" name="Survey Norm Mult" dataDxfId="44" dataCellStyle="Comma">
+    <tableColumn id="10" xr3:uid="{055CE9AD-D854-4ACD-92E0-67EF16EB6969}" name="Survey Norm Mult" dataDxfId="41" dataCellStyle="Comma">
       <calculatedColumnFormula>100/PillarWeights[[#This Row],[Survey Max]]*PillarWeights[[#This Row],[Survey %]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{3D98E22B-0DA9-40A6-89D4-5754D8EE95B7}" name="Education Norm Mult" dataDxfId="43" dataCellStyle="Comma">
+    <tableColumn id="11" xr3:uid="{3D98E22B-0DA9-40A6-89D4-5754D8EE95B7}" name="Education Norm Mult" dataDxfId="40" dataCellStyle="Comma">
       <calculatedColumnFormula>100/PillarWeights[[#This Row],[Education Max]]*PillarWeights[[#This Row],[Education %]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{9BC4E747-929A-46D8-A39B-D391CDA8C267}" name="Marker Norm Max" dataDxfId="42" dataCellStyle="Comma">
+    <tableColumn id="12" xr3:uid="{9BC4E747-929A-46D8-A39B-D391CDA8C267}" name="Marker Norm Max" dataDxfId="39" dataCellStyle="Comma">
       <calculatedColumnFormula>PillarWeights[[#This Row],[Marker Norm Mult]]*PillarWeights[[#This Row],[Marker Max]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{00398716-A18A-4A7B-9806-011B8184CCFA}" name="Survey Norm Max" dataDxfId="41" dataCellStyle="Comma">
+    <tableColumn id="13" xr3:uid="{00398716-A18A-4A7B-9806-011B8184CCFA}" name="Survey Norm Max" dataDxfId="38" dataCellStyle="Comma">
       <calculatedColumnFormula>PillarWeights[[#This Row],[Survey Max]]*PillarWeights[[#This Row],[Survey Norm Mult]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{7E6AED03-AAEB-4A76-A74E-B38837482DF4}" name="Education Norm Max" dataDxfId="40" dataCellStyle="Comma">
+    <tableColumn id="14" xr3:uid="{7E6AED03-AAEB-4A76-A74E-B38837482DF4}" name="Education Norm Max" dataDxfId="37" dataCellStyle="Comma">
       <calculatedColumnFormula>PillarWeights[[#This Row],[Education Norm Mult]]*PillarWeights[[#This Row],[Education Max]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3296,46 +3296,46 @@
   </autoFilter>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{6A677C68-6E72-420B-9523-61DE0EE355FC}" name="Pillar"/>
-    <tableColumn id="10" xr3:uid="{91E217CD-2444-4A93-BF92-3A530B41804D}" name="Marker Raw" dataDxfId="39"/>
+    <tableColumn id="10" xr3:uid="{91E217CD-2444-4A93-BF92-3A530B41804D}" name="Marker Raw" dataDxfId="36"/>
     <tableColumn id="2" xr3:uid="{5226C5B9-105C-4989-BD84-799990111959}" name="Survey Raw"/>
     <tableColumn id="3" xr3:uid="{7172C116-5510-47F8-9BA8-EAF38A8C11E4}" name="Education Raw"/>
-    <tableColumn id="11" xr3:uid="{23246FC1-609F-484C-933E-E25123F4E09D}" name="Marker Norm" dataDxfId="38">
+    <tableColumn id="11" xr3:uid="{23246FC1-609F-484C-933E-E25123F4E09D}" name="Marker Norm" dataDxfId="35">
       <calculatedColumnFormula>Patient_Pillar_Potential[[#This Row],[Marker Raw]]*VLOOKUP(Patient_Pillar_Potential[[#This Row],[Pillar]],PillarWeights[#All],9,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{E19EF3BA-6889-452A-B025-3E9718957DB5}" name="Survey Norm" dataDxfId="37">
+    <tableColumn id="4" xr3:uid="{E19EF3BA-6889-452A-B025-3E9718957DB5}" name="Survey Norm" dataDxfId="34">
       <calculatedColumnFormula>Patient_Pillar_Potential[[#This Row],[Survey Raw]]*VLOOKUP(Patient_Pillar_Potential[[#This Row],[Pillar]],PillarWeights[#All],10,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{D12C887C-CEAA-4119-9628-4CE17FA0AD73}" name="Education Norm" dataDxfId="36">
+    <tableColumn id="5" xr3:uid="{D12C887C-CEAA-4119-9628-4CE17FA0AD73}" name="Education Norm" dataDxfId="33">
       <calculatedColumnFormula>Patient_Pillar_Potential[[#This Row],[Education Raw]]*VLOOKUP(Patient_Pillar_Potential[[#This Row],[Pillar]],PillarWeights[#All],11,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{01005A68-4FB9-42A7-9767-1F394EA8B7A8}" name="Total Norm" dataDxfId="35">
+    <tableColumn id="14" xr3:uid="{01005A68-4FB9-42A7-9767-1F394EA8B7A8}" name="Total Norm" dataDxfId="32">
       <calculatedColumnFormula>Patient_Pillar_Potential[[#This Row],[Marker Norm]]+Patient_Pillar_Potential[[#This Row],[Survey Norm]]+Patient_Pillar_Potential[[#This Row],[Education Norm]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{0C6229A1-FDEF-467F-87FA-CB7200020054}" name="Marker Norm Max" dataDxfId="34">
+    <tableColumn id="12" xr3:uid="{0C6229A1-FDEF-467F-87FA-CB7200020054}" name="Marker Norm Max" dataDxfId="31">
       <calculatedColumnFormula>VLOOKUP(Patient_Pillar_Potential[[#This Row],[Pillar]],PillarWeights[#All],12,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{5BAEF607-D648-47DF-9521-80EF7D476C55}" name="Survey Norm Max" dataDxfId="33">
+    <tableColumn id="6" xr3:uid="{5BAEF607-D648-47DF-9521-80EF7D476C55}" name="Survey Norm Max" dataDxfId="30">
       <calculatedColumnFormula>VLOOKUP(Patient_Pillar_Potential[[#This Row],[Pillar]],PillarWeights[#All],13,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{38E97279-1822-4DBE-8CB2-21A58A399455}" name="Education Norm Max" dataDxfId="32">
+    <tableColumn id="7" xr3:uid="{38E97279-1822-4DBE-8CB2-21A58A399455}" name="Education Norm Max" dataDxfId="29">
       <calculatedColumnFormula>VLOOKUP(Patient_Pillar_Potential[[#This Row],[Pillar]],PillarWeights[#All],14,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{40A8FA1D-1AEE-4225-A6BE-38828CE77D0A}" name="Total Norm Max" dataDxfId="31">
+    <tableColumn id="15" xr3:uid="{40A8FA1D-1AEE-4225-A6BE-38828CE77D0A}" name="Total Norm Max" dataDxfId="28">
       <calculatedColumnFormula>Patient_Pillar_Potential[[#This Row],[Marker Norm Max]]+Patient_Pillar_Potential[[#This Row],[Survey Norm Max]]+Patient_Pillar_Potential[[#This Row],[Education Norm Max]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{255457EB-8475-4AF2-972F-CE22DA7E4215}" name="Marker Norm Potential" dataDxfId="30">
+    <tableColumn id="13" xr3:uid="{255457EB-8475-4AF2-972F-CE22DA7E4215}" name="Marker Norm Potential" dataDxfId="27">
       <calculatedColumnFormula>Patient_Pillar_Potential[[#This Row],[Marker Norm Max]]-Patient_Pillar_Potential[[#This Row],[Marker Norm]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{373BC32B-7847-4EFA-B87B-7833DA87344F}" name="Survey Norm Potential" dataDxfId="29">
+    <tableColumn id="8" xr3:uid="{373BC32B-7847-4EFA-B87B-7833DA87344F}" name="Survey Norm Potential" dataDxfId="26">
       <calculatedColumnFormula>Patient_Pillar_Potential[[#This Row],[Survey Norm Max]]-Patient_Pillar_Potential[[#This Row],[Survey Norm]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{8DA94CD8-81DB-424B-8EAB-A9D3F6A7AC57}" name="Education Norm Potential" dataDxfId="28">
+    <tableColumn id="9" xr3:uid="{8DA94CD8-81DB-424B-8EAB-A9D3F6A7AC57}" name="Education Norm Potential" dataDxfId="25">
       <calculatedColumnFormula>VLOOKUP(Patient_Pillar_Potential[[#This Row],[Pillar]],PillarWeights[#All],14,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{0A3A691C-647F-4C75-A851-B467F3371E0A}" name="Total Norm Potential" dataDxfId="27">
+    <tableColumn id="16" xr3:uid="{0A3A691C-647F-4C75-A851-B467F3371E0A}" name="Total Norm Potential" dataDxfId="24">
       <calculatedColumnFormula>Patient_Pillar_Potential[[#This Row],[Total Norm Max]]-Patient_Pillar_Potential[[#This Row],[Total Norm]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{2D0C451A-C13C-419A-9818-A472D5E9B4D7}" name="PotentialPct" dataDxfId="26" dataCellStyle="Percent">
+    <tableColumn id="17" xr3:uid="{2D0C451A-C13C-419A-9818-A472D5E9B4D7}" name="PotentialPct" dataDxfId="23" dataCellStyle="Percent">
       <calculatedColumnFormula>(Patient_Pillar_Potential[[#This Row],[Marker Norm Max]]-Patient_Pillar_Potential[[#This Row],[Marker Norm]])/Patient_Pillar_Potential[[#This Row],[Marker Norm]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3427,25 +3427,25 @@
   <autoFilter ref="B2:I75" xr:uid="{DEF8B5F9-CB85-4F0E-9D6E-0806D70934C2}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{790D6658-E1A6-4499-9055-E93D412C8D7E}" name="Marker" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{70183FCB-4EA6-438E-B387-A36C94C3092B}" name="Healthful Nutrition Weight" totalsRowFunction="sum" dataDxfId="25">
+    <tableColumn id="2" xr3:uid="{70183FCB-4EA6-438E-B387-A36C94C3092B}" name="Healthful Nutrition Weight" totalsRowFunction="sum" dataDxfId="22">
       <calculatedColumnFormula>VLOOKUP($B3,FactorScores[],3,FALSE)*Markers_Raw_Max[[#This Row],[Healthful Nutrition Weight]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{A48FFAE1-E6BE-4844-857C-CF268289704B}" name="Movement + Exercise Weight" totalsRowFunction="sum" dataDxfId="24">
+    <tableColumn id="3" xr3:uid="{A48FFAE1-E6BE-4844-857C-CF268289704B}" name="Movement + Exercise Weight" totalsRowFunction="sum" dataDxfId="21">
       <calculatedColumnFormula>VLOOKUP($B3,FactorScores[],3,FALSE)*Markers_Raw_Max[[#This Row],[Movement + Exercise Weight]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{9D61316F-5224-4A48-A69B-D831F7D74023}" name="Restorative Sleep Weight" totalsRowFunction="sum" dataDxfId="23">
+    <tableColumn id="4" xr3:uid="{9D61316F-5224-4A48-A69B-D831F7D74023}" name="Restorative Sleep Weight" totalsRowFunction="sum" dataDxfId="20">
       <calculatedColumnFormula>VLOOKUP($B3,FactorScores[],3,FALSE)*Markers_Raw_Max[[#This Row],[Restorative Sleep Weight]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C7909BA0-113B-4E4E-BDCE-AC4EA49B2997}" name="Stress Management Weight" totalsRowFunction="sum" dataDxfId="22">
+    <tableColumn id="5" xr3:uid="{C7909BA0-113B-4E4E-BDCE-AC4EA49B2997}" name="Stress Management Weight" totalsRowFunction="sum" dataDxfId="19">
       <calculatedColumnFormula>VLOOKUP($B3,FactorScores[],3,FALSE)*Markers_Raw_Max[[#This Row],[Stress Management Weight]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{E61A3078-3C79-463E-AE2F-75FC31A57590}" name="Cognitive Health Weight" totalsRowFunction="sum" dataDxfId="21">
+    <tableColumn id="6" xr3:uid="{E61A3078-3C79-463E-AE2F-75FC31A57590}" name="Cognitive Health Weight" totalsRowFunction="sum" dataDxfId="18">
       <calculatedColumnFormula>VLOOKUP($B3,FactorScores[],3,FALSE)*Markers_Raw_Max[[#This Row],[Cognitive Health Weight]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{79B0EF9D-15BC-4D8D-B1BB-6FF0F617D0CB}" name="Connection + Purpose Weight" totalsRowFunction="sum" dataDxfId="20">
+    <tableColumn id="7" xr3:uid="{79B0EF9D-15BC-4D8D-B1BB-6FF0F617D0CB}" name="Connection + Purpose Weight" totalsRowFunction="sum" dataDxfId="17">
       <calculatedColumnFormula>VLOOKUP($B3,FactorScores[],3,FALSE)*Markers_Raw_Max[[#This Row],[Connection + Purpose Weight]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{79A41452-5A13-4A9F-B0F9-9B850DBED771}" name="Core Care Weight" totalsRowFunction="sum" dataDxfId="19">
+    <tableColumn id="8" xr3:uid="{79A41452-5A13-4A9F-B0F9-9B850DBED771}" name="Core Care Weight" totalsRowFunction="sum" dataDxfId="16">
       <calculatedColumnFormula>VLOOKUP($B3,FactorScores[],3,FALSE)*Markers_Raw_Max[[#This Row],[Core Care Weight]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -12360,8 +12360,8 @@
   </sheetPr>
   <dimension ref="B2:H109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38:D76"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -13049,10 +13049,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC1C1"/>
   </sheetPr>
-  <dimension ref="B2:H24"/>
+  <dimension ref="B2:K24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -13407,7 +13407,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>14</v>
       </c>
@@ -13430,7 +13430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>15</v>
       </c>
@@ -13453,7 +13453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>16</v>
       </c>
@@ -13476,7 +13476,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>17</v>
       </c>
@@ -13499,7 +13499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>18</v>
       </c>
@@ -13522,7 +13522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>19</v>
       </c>
@@ -13545,7 +13545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>20</v>
       </c>
@@ -13567,8 +13567,12 @@
       <c r="H23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="K23">
+        <f>100/130*0.54*10</f>
+        <v>4.1538461538461542</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>109</v>
       </c>
@@ -15798,7 +15802,7 @@
   </sheetPr>
   <dimension ref="B2:H24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>

--- a/Scoring factors.xlsx
+++ b/Scoring factors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2c3d417d339670cb/Documents/GitHub/preliminary_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="91" documentId="8_{1BDF51E7-5E11-4E99-AA4A-5DD579AE109A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD96F703-302B-4D6F-97E7-AB01A881C8FE}"/>
+  <xr:revisionPtr revIDLastSave="183" documentId="8_{1BDF51E7-5E11-4E99-AA4A-5DD579AE109A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DF808A1-8405-4416-9869-AE88FD9BEB99}"/>
   <bookViews>
-    <workbookView xWindow="7770" yWindow="2020" windowWidth="28800" windowHeight="15370" tabRatio="864" firstSheet="15" activeTab="15" xr2:uid="{7BAB5CB3-E514-4AC3-9A35-1DA93A51C3CB}"/>
+    <workbookView xWindow="38310" yWindow="0" windowWidth="19380" windowHeight="20970" tabRatio="864" firstSheet="15" activeTab="21" xr2:uid="{7BAB5CB3-E514-4AC3-9A35-1DA93A51C3CB}"/>
   </bookViews>
   <sheets>
     <sheet name="PowerQuery &gt;&gt;&gt;" sheetId="20" r:id="rId1"/>
@@ -34,15 +34,30 @@
     <sheet name="COGNITIVE_CHECK" sheetId="41" r:id="rId19"/>
     <sheet name="CONNECTION_CHECK" sheetId="42" r:id="rId20"/>
     <sheet name="CORE_CHECK" sheetId="43" r:id="rId21"/>
+    <sheet name="ROLLUP" sheetId="44" r:id="rId22"/>
   </sheets>
   <definedNames>
     <definedName name="CC_Marker_Norm">Map!$I$16</definedName>
     <definedName name="CH_Marker_Norm">Map!$G$16</definedName>
+    <definedName name="cog_m_m_total">Table512131415[[#Totals],[MARKER_METRIC_TOTAL]]</definedName>
+    <definedName name="cog_survey_total">Table512131415[[#Totals],[SURVEY_TOTAL]]</definedName>
+    <definedName name="connect_m_m_total">Table51213141516[[#Totals],[MARKER_METRIC_TOTAL]]</definedName>
+    <definedName name="connect_survey_total">Table51213141516[[#Totals],[SURVEY_TOTAL]]</definedName>
+    <definedName name="core_m_m_total">Table5121314151617[[#Totals],[MARKER_METRIC_TOTAL]]</definedName>
+    <definedName name="core_survey_total">Table5121314151617[[#Totals],[SURVEY_TOTAL]]</definedName>
     <definedName name="CP_Marker_Norm">Map!$H$16</definedName>
     <definedName name="HN_Marker_Norm">Map!$C$16</definedName>
     <definedName name="ME_Marker_Norm">Map!$D$16</definedName>
+    <definedName name="mvmt_m_m_total">Table512[[#Totals],[MARKER_METRIC_TOTAL]]</definedName>
+    <definedName name="mvmt_survey_total">Table512[[#Totals],[SURVEY_TOTAL]]</definedName>
+    <definedName name="nut_m_m_total">Table5[[#Totals],[MARKER_METRIC_TOTAL]]</definedName>
+    <definedName name="nut_survey_total">Table5[[#Totals],[SURVEY_TOTAL]]</definedName>
     <definedName name="RS_Marker_Norm">Map!$E$16</definedName>
+    <definedName name="sleep_m_m_total">Table51213[[#Totals],[MARKER_METRIC_TOTAL]]</definedName>
+    <definedName name="sleep_survey_total">Table51213[[#Totals],[SURVEY_TOTAL]]</definedName>
     <definedName name="SM_Marker_Norm">Map!$F$16</definedName>
+    <definedName name="stress_m_m_total">Table5121314[[#Totals],[MARKER_METRIC_TOTAL]]</definedName>
+    <definedName name="stress_survey_total">Table5121314[[#Totals],[SURVEY_TOTAL]]</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -64,8 +79,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2443" uniqueCount="817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2466" uniqueCount="832">
   <si>
     <t>Survey</t>
   </si>
@@ -2553,18 +2590,64 @@
       <t>Max for women is 143, but max for men is 140 due to progesterone being a female-only marker</t>
     </r>
   </si>
+  <si>
+    <t>Clinical Rationale</t>
+  </si>
+  <si>
+    <t>Biomarkers strongly reflect nutritional status</t>
+  </si>
+  <si>
+    <t>Balanced objective/subjective assessment</t>
+  </si>
+  <si>
+    <t>Sleep biomarkers highly predictive</t>
+  </si>
+  <si>
+    <t>Self-reported cognitive function critical</t>
+  </si>
+  <si>
+    <t>Stress primarily subjective experience</t>
+  </si>
+  <si>
+    <t>Social connection best assessed via survey</t>
+  </si>
+  <si>
+    <t>Balanced preventive care assessment</t>
+  </si>
+  <si>
+    <t>MARKER_NORM</t>
+  </si>
+  <si>
+    <t>MARKER_MAX</t>
+  </si>
+  <si>
+    <t>MARKER_%</t>
+  </si>
+  <si>
+    <t>SURVEY_%</t>
+  </si>
+  <si>
+    <t>SURVEY_MAX</t>
+  </si>
+  <si>
+    <t>SURVEY_NORM</t>
+  </si>
+  <si>
+    <t>EDUCATION_%</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="173" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -2622,7 +2705,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2640,13 +2723,98 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="55">
+  <dxfs count="65">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="173" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="173" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -2666,6 +2834,12 @@
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2938,14 +3112,14 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Table Style 1" pivot="0" count="3" xr9:uid="{98515462-0323-4023-B745-A93970CE856C}">
-      <tableStyleElement type="wholeTable" dxfId="54"/>
-      <tableStyleElement type="headerRow" dxfId="53"/>
-      <tableStyleElement type="totalRow" dxfId="52"/>
+      <tableStyleElement type="wholeTable" dxfId="64"/>
+      <tableStyleElement type="headerRow" dxfId="63"/>
+      <tableStyleElement type="totalRow" dxfId="62"/>
     </tableStyle>
     <tableStyle name="Table Style 1 2" pivot="0" count="3" xr9:uid="{3E1C38ED-B173-47E8-B88D-6A8D0DE93291}">
-      <tableStyleElement type="wholeTable" dxfId="51"/>
-      <tableStyleElement type="headerRow" dxfId="50"/>
-      <tableStyleElement type="totalRow" dxfId="49"/>
+      <tableStyleElement type="wholeTable" dxfId="61"/>
+      <tableStyleElement type="headerRow" dxfId="60"/>
+      <tableStyleElement type="totalRow" dxfId="59"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2988,25 +3162,25 @@
   <autoFilter ref="B2:I75" xr:uid="{DEF8B5F9-CB85-4F0E-9D6E-0806D70934C2}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{F910B4AF-3A17-4907-9BE6-D8A4488001F9}" name="Marker" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{F1DAED2C-C6A2-444F-BD4F-78A182775170}" name="Healthful Nutrition Weight" totalsRowFunction="sum" dataDxfId="15">
+    <tableColumn id="2" xr3:uid="{F1DAED2C-C6A2-444F-BD4F-78A182775170}" name="Healthful Nutrition Weight" totalsRowFunction="sum" dataDxfId="25">
       <calculatedColumnFormula>VLOOKUP($B3,FactorScores[],3,FALSE)*Markers_Raw_Max[[#This Row],[Healthful Nutrition Weight]]*HN_Marker_Norm</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{9CDB5431-5C5B-4A43-AAC1-7CCBCB593474}" name="Movement + Exercise Weight" totalsRowFunction="sum" dataDxfId="14">
+    <tableColumn id="3" xr3:uid="{9CDB5431-5C5B-4A43-AAC1-7CCBCB593474}" name="Movement + Exercise Weight" totalsRowFunction="sum" dataDxfId="24">
       <calculatedColumnFormula>VLOOKUP($B3,FactorScores[],3,FALSE)*Markers_Raw_Max[[#This Row],[Movement + Exercise Weight]]*ME_Marker_Norm</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{B7417B1A-05A0-4E65-811C-07F70319FF97}" name="Restorative Sleep Weight" totalsRowFunction="sum" dataDxfId="13">
+    <tableColumn id="4" xr3:uid="{B7417B1A-05A0-4E65-811C-07F70319FF97}" name="Restorative Sleep Weight" totalsRowFunction="sum" dataDxfId="23">
       <calculatedColumnFormula>VLOOKUP($B3,FactorScores[],3,FALSE)*Markers_Raw_Max[[#This Row],[Restorative Sleep Weight]]*RS_Marker_Norm</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{0581AB75-2367-4BC5-BE5C-47E374A3076F}" name="Stress Management Weight" totalsRowFunction="sum" dataDxfId="12">
+    <tableColumn id="5" xr3:uid="{0581AB75-2367-4BC5-BE5C-47E374A3076F}" name="Stress Management Weight" totalsRowFunction="sum" dataDxfId="22">
       <calculatedColumnFormula>VLOOKUP($B3,FactorScores[],3,FALSE)*Markers_Raw_Max[[#This Row],[Stress Management Weight]]*SM_Marker_Norm</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{E6ADCD91-A16F-445A-82CE-E1A1CEA47724}" name="Cognitive Health Weight" totalsRowFunction="sum" dataDxfId="11">
+    <tableColumn id="6" xr3:uid="{E6ADCD91-A16F-445A-82CE-E1A1CEA47724}" name="Cognitive Health Weight" totalsRowFunction="sum" dataDxfId="21">
       <calculatedColumnFormula>VLOOKUP($B3,FactorScores[],3,FALSE)*Markers_Raw_Max[[#This Row],[Cognitive Health Weight]]*CH_Marker_Norm</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{233B0D83-EDB7-4E30-AC35-F94A5C1046E3}" name="Connection + Purpose Weight" totalsRowFunction="sum" dataDxfId="10">
+    <tableColumn id="7" xr3:uid="{233B0D83-EDB7-4E30-AC35-F94A5C1046E3}" name="Connection + Purpose Weight" totalsRowFunction="sum" dataDxfId="20">
       <calculatedColumnFormula>VLOOKUP($B3,FactorScores[],3,FALSE)*Markers_Raw_Max[[#This Row],[Connection + Purpose Weight]]*CP_Marker_Norm</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{F3DBF80A-92BC-4A3B-A0A2-DCE05CA7C761}" name="Core Care Weight" totalsRowFunction="sum" dataDxfId="9">
+    <tableColumn id="8" xr3:uid="{F3DBF80A-92BC-4A3B-A0A2-DCE05CA7C761}" name="Core Care Weight" totalsRowFunction="sum" dataDxfId="19">
       <calculatedColumnFormula>VLOOKUP($B3,FactorScores[],3,FALSE)*Markers_Raw_Max[[#This Row],[Core Care Weight]]*CC_Marker_Norm</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3018,25 +3192,25 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{70930A60-A738-4E0B-A314-9812F2043676}" name="Sample_Patient_Norm_Dif" displayName="Sample_Patient_Norm_Dif" ref="B2:I75" totalsRowShown="0">
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{10B63309-EE1D-4F72-B175-8D0E568B1BA6}" name="Marker"/>
-    <tableColumn id="2" xr3:uid="{3C4E14EA-7766-4B5E-9EFF-2944D22BF227}" name="Healthful Nutrition Weight" dataDxfId="8">
+    <tableColumn id="2" xr3:uid="{3C4E14EA-7766-4B5E-9EFF-2944D22BF227}" name="Healthful Nutrition Weight" dataDxfId="18">
       <calculatedColumnFormula>FactorPillarNormalized[[#This Row],[Healthful Nutrition Weight]]-PatientValues[[#This Row],[Healthful Nutrition Weight]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{280E2E6C-70AD-4961-AC50-BA48DCE94B27}" name="Movement + Exercise Weight" dataDxfId="7">
+    <tableColumn id="3" xr3:uid="{280E2E6C-70AD-4961-AC50-BA48DCE94B27}" name="Movement + Exercise Weight" dataDxfId="17">
       <calculatedColumnFormula>FactorPillarNormalized[[#This Row],[Movement + Exercise Weight]]-PatientValues[[#This Row],[Movement + Exercise Weight]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{93E80520-215E-427F-AEC2-BF0AB79BDDB0}" name="Restorative Sleep Weight" dataDxfId="6">
+    <tableColumn id="4" xr3:uid="{93E80520-215E-427F-AEC2-BF0AB79BDDB0}" name="Restorative Sleep Weight" dataDxfId="16">
       <calculatedColumnFormula>FactorPillarNormalized[[#This Row],[Restorative Sleep Weight]]-PatientValues[[#This Row],[Restorative Sleep Weight]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{B04ED05F-19D8-4A88-B0A2-084CE54637C2}" name="Stress Management Weight" dataDxfId="5">
+    <tableColumn id="5" xr3:uid="{B04ED05F-19D8-4A88-B0A2-084CE54637C2}" name="Stress Management Weight" dataDxfId="15">
       <calculatedColumnFormula>VLOOKUP(Sample_Patient_Norm!$B3,FactorScores[],3,FALSE)*Markers_Raw_Max[[#This Row],[Stress Management Weight]]*SM_Marker_Norm</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{3969BA3C-17E1-4F50-8CD1-1E477A4BCA2C}" name="Cognitive Health Weight" dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{3969BA3C-17E1-4F50-8CD1-1E477A4BCA2C}" name="Cognitive Health Weight" dataDxfId="14">
       <calculatedColumnFormula>VLOOKUP(Sample_Patient_Norm!$B3,FactorScores[],3,FALSE)*Markers_Raw_Max[[#This Row],[Cognitive Health Weight]]*CH_Marker_Norm</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{D586E7C7-8F5E-4147-B567-8697181D1C01}" name="Connection + Purpose Weight" dataDxfId="3">
+    <tableColumn id="7" xr3:uid="{D586E7C7-8F5E-4147-B567-8697181D1C01}" name="Connection + Purpose Weight" dataDxfId="13">
       <calculatedColumnFormula>VLOOKUP(Sample_Patient_Norm!$B3,FactorScores[],3,FALSE)*Markers_Raw_Max[[#This Row],[Connection + Purpose Weight]]*CP_Marker_Norm</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{B62BA66B-10D2-4366-8398-6D132B4A0850}" name="Core Care Weight" dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{B62BA66B-10D2-4366-8398-6D132B4A0850}" name="Core Care Weight" dataDxfId="12">
       <calculatedColumnFormula>VLOOKUP(Sample_Patient_Norm!$B3,FactorScores[],3,FALSE)*Markers_Raw_Max[[#This Row],[Core Care Weight]]*CC_Marker_Norm</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3212,6 +3386,38 @@
 </table>
 </file>
 
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{BCF24ABE-54FF-4CC4-BE51-8F563FBBF1C6}" name="Table10" displayName="Table10" ref="O15:V22" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="O15:V22" xr:uid="{BCF24ABE-54FF-4CC4-BE51-8F563FBBF1C6}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="7" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{A8D0A804-97F9-4CCD-B679-2BC70E0024B0}" name="Pillar" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{611C9183-1EDD-43EE-80B0-B782B0D7A170}" name="MARKER_%" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{A7B5A154-9B03-4D70-9B32-23AD4D33E941}" name="MARKER_MAX" dataDxfId="5" dataCellStyle="Comma">
+      <calculatedColumnFormula>Table5[[#Totals],[MARKER_METRIC_TOTAL]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{9249B5FC-2CBB-48B1-839A-900AF4F1431F}" name="MARKER_NORM" dataDxfId="1" dataCellStyle="Comma">
+      <calculatedColumnFormula>100/Table10[[#This Row],[MARKER_MAX]]*Table10[[#This Row],[MARKER_%]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{D220CF55-329D-4D74-A145-25803C4700C9}" name="SURVEY_%" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{FFFE54DE-C53B-4A62-A339-086A2B5BD5A2}" name="SURVEY_MAX" dataDxfId="3" dataCellStyle="Comma"/>
+    <tableColumn id="8" xr3:uid="{6EA2B4C0-01B2-40E2-9F5D-C103C0B72AF8}" name="SURVEY_NORM" dataDxfId="0" dataCellStyle="Comma">
+      <calculatedColumnFormula>100/Table10[[#This Row],[SURVEY_MAX]]*Table10[[#This Row],[SURVEY_%]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{3E1862EE-F386-4037-915A-8073637F5563}" name="EDUCATION_%" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="Table Style 1 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{CC57E5C4-BC10-4335-B6FD-91282057C7F5}" name="TypeWeights" displayName="TypeWeights" ref="E2:F4" totalsRowShown="0">
   <autoFilter ref="E2:F4" xr:uid="{CC57E5C4-BC10-4335-B6FD-91282057C7F5}"/>
@@ -3243,29 +3449,29 @@
   </autoFilter>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{F8C11330-056A-467E-8B0C-9062F8655C6C}" name="Pillar"/>
-    <tableColumn id="2" xr3:uid="{B746B74E-8E03-4243-9822-E4B77D890AD5}" name="PillarWeight" dataDxfId="48"/>
-    <tableColumn id="3" xr3:uid="{131C71CF-B69F-4408-BCC6-7CC72F5677F0}" name="Marker %" dataDxfId="47"/>
-    <tableColumn id="4" xr3:uid="{21942E5C-3142-439E-AF89-2BA724595B31}" name="Survey %" dataDxfId="46"/>
-    <tableColumn id="5" xr3:uid="{9929A771-DACD-484E-862B-6BCCDCE2D1EC}" name="Education %" dataDxfId="45"/>
-    <tableColumn id="6" xr3:uid="{F102C24D-006C-4111-B93B-2A418FAF793A}" name="Marker Max" dataDxfId="44"/>
-    <tableColumn id="7" xr3:uid="{120010EB-624E-41A2-A207-0F4178521BD7}" name="Survey Max" dataDxfId="43"/>
-    <tableColumn id="8" xr3:uid="{1F0B2DF1-6A3A-4708-AD91-9338832F0D49}" name="Education Max" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{B746B74E-8E03-4243-9822-E4B77D890AD5}" name="PillarWeight" dataDxfId="58"/>
+    <tableColumn id="3" xr3:uid="{131C71CF-B69F-4408-BCC6-7CC72F5677F0}" name="Marker %" dataDxfId="57"/>
+    <tableColumn id="4" xr3:uid="{21942E5C-3142-439E-AF89-2BA724595B31}" name="Survey %" dataDxfId="56"/>
+    <tableColumn id="5" xr3:uid="{9929A771-DACD-484E-862B-6BCCDCE2D1EC}" name="Education %" dataDxfId="55"/>
+    <tableColumn id="6" xr3:uid="{F102C24D-006C-4111-B93B-2A418FAF793A}" name="Marker Max" dataDxfId="54"/>
+    <tableColumn id="7" xr3:uid="{120010EB-624E-41A2-A207-0F4178521BD7}" name="Survey Max" dataDxfId="53"/>
+    <tableColumn id="8" xr3:uid="{1F0B2DF1-6A3A-4708-AD91-9338832F0D49}" name="Education Max" dataDxfId="52"/>
     <tableColumn id="9" xr3:uid="{757E5AB0-83E6-402F-B2A5-A79F712C4926}" name="Marker Norm Mult" dataCellStyle="Comma">
       <calculatedColumnFormula>100/PillarWeights[[#This Row],[Marker Max]]*PillarWeights[[#This Row],[Marker %]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{055CE9AD-D854-4ACD-92E0-67EF16EB6969}" name="Survey Norm Mult" dataDxfId="41" dataCellStyle="Comma">
+    <tableColumn id="10" xr3:uid="{055CE9AD-D854-4ACD-92E0-67EF16EB6969}" name="Survey Norm Mult" dataDxfId="51" dataCellStyle="Comma">
       <calculatedColumnFormula>100/PillarWeights[[#This Row],[Survey Max]]*PillarWeights[[#This Row],[Survey %]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{3D98E22B-0DA9-40A6-89D4-5754D8EE95B7}" name="Education Norm Mult" dataDxfId="40" dataCellStyle="Comma">
+    <tableColumn id="11" xr3:uid="{3D98E22B-0DA9-40A6-89D4-5754D8EE95B7}" name="Education Norm Mult" dataDxfId="50" dataCellStyle="Comma">
       <calculatedColumnFormula>100/PillarWeights[[#This Row],[Education Max]]*PillarWeights[[#This Row],[Education %]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{9BC4E747-929A-46D8-A39B-D391CDA8C267}" name="Marker Norm Max" dataDxfId="39" dataCellStyle="Comma">
+    <tableColumn id="12" xr3:uid="{9BC4E747-929A-46D8-A39B-D391CDA8C267}" name="Marker Norm Max" dataDxfId="49" dataCellStyle="Comma">
       <calculatedColumnFormula>PillarWeights[[#This Row],[Marker Norm Mult]]*PillarWeights[[#This Row],[Marker Max]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{00398716-A18A-4A7B-9806-011B8184CCFA}" name="Survey Norm Max" dataDxfId="38" dataCellStyle="Comma">
+    <tableColumn id="13" xr3:uid="{00398716-A18A-4A7B-9806-011B8184CCFA}" name="Survey Norm Max" dataDxfId="48" dataCellStyle="Comma">
       <calculatedColumnFormula>PillarWeights[[#This Row],[Survey Max]]*PillarWeights[[#This Row],[Survey Norm Mult]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{7E6AED03-AAEB-4A76-A74E-B38837482DF4}" name="Education Norm Max" dataDxfId="37" dataCellStyle="Comma">
+    <tableColumn id="14" xr3:uid="{7E6AED03-AAEB-4A76-A74E-B38837482DF4}" name="Education Norm Max" dataDxfId="47" dataCellStyle="Comma">
       <calculatedColumnFormula>PillarWeights[[#This Row],[Education Norm Mult]]*PillarWeights[[#This Row],[Education Max]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3296,46 +3502,46 @@
   </autoFilter>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{6A677C68-6E72-420B-9523-61DE0EE355FC}" name="Pillar"/>
-    <tableColumn id="10" xr3:uid="{91E217CD-2444-4A93-BF92-3A530B41804D}" name="Marker Raw" dataDxfId="36"/>
+    <tableColumn id="10" xr3:uid="{91E217CD-2444-4A93-BF92-3A530B41804D}" name="Marker Raw" dataDxfId="46"/>
     <tableColumn id="2" xr3:uid="{5226C5B9-105C-4989-BD84-799990111959}" name="Survey Raw"/>
     <tableColumn id="3" xr3:uid="{7172C116-5510-47F8-9BA8-EAF38A8C11E4}" name="Education Raw"/>
-    <tableColumn id="11" xr3:uid="{23246FC1-609F-484C-933E-E25123F4E09D}" name="Marker Norm" dataDxfId="35">
+    <tableColumn id="11" xr3:uid="{23246FC1-609F-484C-933E-E25123F4E09D}" name="Marker Norm" dataDxfId="45">
       <calculatedColumnFormula>Patient_Pillar_Potential[[#This Row],[Marker Raw]]*VLOOKUP(Patient_Pillar_Potential[[#This Row],[Pillar]],PillarWeights[#All],9,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{E19EF3BA-6889-452A-B025-3E9718957DB5}" name="Survey Norm" dataDxfId="34">
+    <tableColumn id="4" xr3:uid="{E19EF3BA-6889-452A-B025-3E9718957DB5}" name="Survey Norm" dataDxfId="44">
       <calculatedColumnFormula>Patient_Pillar_Potential[[#This Row],[Survey Raw]]*VLOOKUP(Patient_Pillar_Potential[[#This Row],[Pillar]],PillarWeights[#All],10,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{D12C887C-CEAA-4119-9628-4CE17FA0AD73}" name="Education Norm" dataDxfId="33">
+    <tableColumn id="5" xr3:uid="{D12C887C-CEAA-4119-9628-4CE17FA0AD73}" name="Education Norm" dataDxfId="43">
       <calculatedColumnFormula>Patient_Pillar_Potential[[#This Row],[Education Raw]]*VLOOKUP(Patient_Pillar_Potential[[#This Row],[Pillar]],PillarWeights[#All],11,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{01005A68-4FB9-42A7-9767-1F394EA8B7A8}" name="Total Norm" dataDxfId="32">
+    <tableColumn id="14" xr3:uid="{01005A68-4FB9-42A7-9767-1F394EA8B7A8}" name="Total Norm" dataDxfId="42">
       <calculatedColumnFormula>Patient_Pillar_Potential[[#This Row],[Marker Norm]]+Patient_Pillar_Potential[[#This Row],[Survey Norm]]+Patient_Pillar_Potential[[#This Row],[Education Norm]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{0C6229A1-FDEF-467F-87FA-CB7200020054}" name="Marker Norm Max" dataDxfId="31">
+    <tableColumn id="12" xr3:uid="{0C6229A1-FDEF-467F-87FA-CB7200020054}" name="Marker Norm Max" dataDxfId="41">
       <calculatedColumnFormula>VLOOKUP(Patient_Pillar_Potential[[#This Row],[Pillar]],PillarWeights[#All],12,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{5BAEF607-D648-47DF-9521-80EF7D476C55}" name="Survey Norm Max" dataDxfId="30">
+    <tableColumn id="6" xr3:uid="{5BAEF607-D648-47DF-9521-80EF7D476C55}" name="Survey Norm Max" dataDxfId="40">
       <calculatedColumnFormula>VLOOKUP(Patient_Pillar_Potential[[#This Row],[Pillar]],PillarWeights[#All],13,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{38E97279-1822-4DBE-8CB2-21A58A399455}" name="Education Norm Max" dataDxfId="29">
+    <tableColumn id="7" xr3:uid="{38E97279-1822-4DBE-8CB2-21A58A399455}" name="Education Norm Max" dataDxfId="39">
       <calculatedColumnFormula>VLOOKUP(Patient_Pillar_Potential[[#This Row],[Pillar]],PillarWeights[#All],14,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{40A8FA1D-1AEE-4225-A6BE-38828CE77D0A}" name="Total Norm Max" dataDxfId="28">
+    <tableColumn id="15" xr3:uid="{40A8FA1D-1AEE-4225-A6BE-38828CE77D0A}" name="Total Norm Max" dataDxfId="38">
       <calculatedColumnFormula>Patient_Pillar_Potential[[#This Row],[Marker Norm Max]]+Patient_Pillar_Potential[[#This Row],[Survey Norm Max]]+Patient_Pillar_Potential[[#This Row],[Education Norm Max]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{255457EB-8475-4AF2-972F-CE22DA7E4215}" name="Marker Norm Potential" dataDxfId="27">
+    <tableColumn id="13" xr3:uid="{255457EB-8475-4AF2-972F-CE22DA7E4215}" name="Marker Norm Potential" dataDxfId="37">
       <calculatedColumnFormula>Patient_Pillar_Potential[[#This Row],[Marker Norm Max]]-Patient_Pillar_Potential[[#This Row],[Marker Norm]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{373BC32B-7847-4EFA-B87B-7833DA87344F}" name="Survey Norm Potential" dataDxfId="26">
+    <tableColumn id="8" xr3:uid="{373BC32B-7847-4EFA-B87B-7833DA87344F}" name="Survey Norm Potential" dataDxfId="36">
       <calculatedColumnFormula>Patient_Pillar_Potential[[#This Row],[Survey Norm Max]]-Patient_Pillar_Potential[[#This Row],[Survey Norm]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{8DA94CD8-81DB-424B-8EAB-A9D3F6A7AC57}" name="Education Norm Potential" dataDxfId="25">
+    <tableColumn id="9" xr3:uid="{8DA94CD8-81DB-424B-8EAB-A9D3F6A7AC57}" name="Education Norm Potential" dataDxfId="35">
       <calculatedColumnFormula>VLOOKUP(Patient_Pillar_Potential[[#This Row],[Pillar]],PillarWeights[#All],14,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{0A3A691C-647F-4C75-A851-B467F3371E0A}" name="Total Norm Potential" dataDxfId="24">
+    <tableColumn id="16" xr3:uid="{0A3A691C-647F-4C75-A851-B467F3371E0A}" name="Total Norm Potential" dataDxfId="34">
       <calculatedColumnFormula>Patient_Pillar_Potential[[#This Row],[Total Norm Max]]-Patient_Pillar_Potential[[#This Row],[Total Norm]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{2D0C451A-C13C-419A-9818-A472D5E9B4D7}" name="PotentialPct" dataDxfId="23" dataCellStyle="Percent">
+    <tableColumn id="17" xr3:uid="{2D0C451A-C13C-419A-9818-A472D5E9B4D7}" name="PotentialPct" dataDxfId="33" dataCellStyle="Percent">
       <calculatedColumnFormula>(Patient_Pillar_Potential[[#This Row],[Marker Norm Max]]-Patient_Pillar_Potential[[#This Row],[Marker Norm]])/Patient_Pillar_Potential[[#This Row],[Marker Norm]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3427,25 +3633,25 @@
   <autoFilter ref="B2:I75" xr:uid="{DEF8B5F9-CB85-4F0E-9D6E-0806D70934C2}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{790D6658-E1A6-4499-9055-E93D412C8D7E}" name="Marker" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{70183FCB-4EA6-438E-B387-A36C94C3092B}" name="Healthful Nutrition Weight" totalsRowFunction="sum" dataDxfId="22">
+    <tableColumn id="2" xr3:uid="{70183FCB-4EA6-438E-B387-A36C94C3092B}" name="Healthful Nutrition Weight" totalsRowFunction="sum" dataDxfId="32">
       <calculatedColumnFormula>VLOOKUP($B3,FactorScores[],3,FALSE)*Markers_Raw_Max[[#This Row],[Healthful Nutrition Weight]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{A48FFAE1-E6BE-4844-857C-CF268289704B}" name="Movement + Exercise Weight" totalsRowFunction="sum" dataDxfId="21">
+    <tableColumn id="3" xr3:uid="{A48FFAE1-E6BE-4844-857C-CF268289704B}" name="Movement + Exercise Weight" totalsRowFunction="sum" dataDxfId="31">
       <calculatedColumnFormula>VLOOKUP($B3,FactorScores[],3,FALSE)*Markers_Raw_Max[[#This Row],[Movement + Exercise Weight]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{9D61316F-5224-4A48-A69B-D831F7D74023}" name="Restorative Sleep Weight" totalsRowFunction="sum" dataDxfId="20">
+    <tableColumn id="4" xr3:uid="{9D61316F-5224-4A48-A69B-D831F7D74023}" name="Restorative Sleep Weight" totalsRowFunction="sum" dataDxfId="30">
       <calculatedColumnFormula>VLOOKUP($B3,FactorScores[],3,FALSE)*Markers_Raw_Max[[#This Row],[Restorative Sleep Weight]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C7909BA0-113B-4E4E-BDCE-AC4EA49B2997}" name="Stress Management Weight" totalsRowFunction="sum" dataDxfId="19">
+    <tableColumn id="5" xr3:uid="{C7909BA0-113B-4E4E-BDCE-AC4EA49B2997}" name="Stress Management Weight" totalsRowFunction="sum" dataDxfId="29">
       <calculatedColumnFormula>VLOOKUP($B3,FactorScores[],3,FALSE)*Markers_Raw_Max[[#This Row],[Stress Management Weight]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{E61A3078-3C79-463E-AE2F-75FC31A57590}" name="Cognitive Health Weight" totalsRowFunction="sum" dataDxfId="18">
+    <tableColumn id="6" xr3:uid="{E61A3078-3C79-463E-AE2F-75FC31A57590}" name="Cognitive Health Weight" totalsRowFunction="sum" dataDxfId="28">
       <calculatedColumnFormula>VLOOKUP($B3,FactorScores[],3,FALSE)*Markers_Raw_Max[[#This Row],[Cognitive Health Weight]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{79B0EF9D-15BC-4D8D-B1BB-6FF0F617D0CB}" name="Connection + Purpose Weight" totalsRowFunction="sum" dataDxfId="17">
+    <tableColumn id="7" xr3:uid="{79B0EF9D-15BC-4D8D-B1BB-6FF0F617D0CB}" name="Connection + Purpose Weight" totalsRowFunction="sum" dataDxfId="27">
       <calculatedColumnFormula>VLOOKUP($B3,FactorScores[],3,FALSE)*Markers_Raw_Max[[#This Row],[Connection + Purpose Weight]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{79A41452-5A13-4A9F-B0F9-9B850DBED771}" name="Core Care Weight" totalsRowFunction="sum" dataDxfId="16">
+    <tableColumn id="8" xr3:uid="{79A41452-5A13-4A9F-B0F9-9B850DBED771}" name="Core Care Weight" totalsRowFunction="sum" dataDxfId="26">
       <calculatedColumnFormula>VLOOKUP($B3,FactorScores[],3,FALSE)*Markers_Raw_Max[[#This Row],[Core Care Weight]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -12361,7 +12567,7 @@
   <dimension ref="B2:H109"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -13049,10 +13255,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC1C1"/>
   </sheetPr>
-  <dimension ref="B2:K24"/>
+  <dimension ref="B2:H24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -13407,7 +13613,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>14</v>
       </c>
@@ -13430,7 +13636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>15</v>
       </c>
@@ -13453,7 +13659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>16</v>
       </c>
@@ -13476,7 +13682,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>17</v>
       </c>
@@ -13499,7 +13705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>18</v>
       </c>
@@ -13522,7 +13728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>19</v>
       </c>
@@ -13545,7 +13751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>20</v>
       </c>
@@ -13567,12 +13773,8 @@
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="K23">
-        <f>100/130*0.54*10</f>
-        <v>4.1538461538461542</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>109</v>
       </c>
@@ -13601,7 +13803,7 @@
   <dimension ref="B2:H24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -14146,7 +14348,7 @@
   <dimension ref="B2:H27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -14696,7 +14898,7 @@
   <dimension ref="B2:H24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H23"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -15258,7 +15460,7 @@
   <dimension ref="B2:H24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -15803,7 +16005,7 @@
   <dimension ref="B2:H24"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -16331,6 +16533,326 @@
         <f>SUBTOTAL(109,Table5121314151617[SURVEY_TOTAL])</f>
         <v>382</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{921923F2-D6F0-4E02-9BFD-8BFC187726C4}">
+  <sheetPr>
+    <tabColor theme="2" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="O15:AA31"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="U30" sqref="U30:U31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="15" max="15" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="22" width="15.90625" style="21" customWidth="1"/>
+    <col min="23" max="26" width="13.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="15" spans="15:27" x14ac:dyDescent="0.25">
+      <c r="O15" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="P15" s="15" t="s">
+        <v>827</v>
+      </c>
+      <c r="Q15" s="15" t="s">
+        <v>826</v>
+      </c>
+      <c r="R15" s="15" t="s">
+        <v>825</v>
+      </c>
+      <c r="S15" s="15" t="s">
+        <v>828</v>
+      </c>
+      <c r="T15" s="15" t="s">
+        <v>829</v>
+      </c>
+      <c r="U15" s="15" t="s">
+        <v>830</v>
+      </c>
+      <c r="V15" s="15" t="s">
+        <v>831</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="16" spans="15:27" x14ac:dyDescent="0.25">
+      <c r="O16" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="P16" s="16">
+        <v>0.72</v>
+      </c>
+      <c r="Q16" s="20" cm="1">
+        <f t="array" ref="Q16">nut_m_m_total</f>
+        <v>260</v>
+      </c>
+      <c r="R16" s="19">
+        <f>100/Table10[[#This Row],[MARKER_MAX]]*Table10[[#This Row],[MARKER_%]]</f>
+        <v>0.27692307692307694</v>
+      </c>
+      <c r="S16" s="16">
+        <v>0.18</v>
+      </c>
+      <c r="T16" s="20" cm="1">
+        <f t="array" ref="T16">nut_survey_total</f>
+        <v>73</v>
+      </c>
+      <c r="U16" s="19">
+        <f>100/Table10[[#This Row],[SURVEY_MAX]]*Table10[[#This Row],[SURVEY_%]]</f>
+        <v>0.24657534246575341</v>
+      </c>
+      <c r="V16" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="17" spans="15:27" x14ac:dyDescent="0.25">
+      <c r="O17" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="P17" s="16">
+        <v>0.54</v>
+      </c>
+      <c r="Q17" s="20" cm="1">
+        <f t="array" ref="Q17">mvmt_m_m_total</f>
+        <v>130</v>
+      </c>
+      <c r="R17" s="19">
+        <f>100/Table10[[#This Row],[MARKER_MAX]]*Table10[[#This Row],[MARKER_%]]</f>
+        <v>0.41538461538461541</v>
+      </c>
+      <c r="S17" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="T17" s="20" cm="1">
+        <f t="array" ref="T17">mvmt_survey_total</f>
+        <v>76</v>
+      </c>
+      <c r="U17" s="19">
+        <f>100/Table10[[#This Row],[SURVEY_MAX]]*Table10[[#This Row],[SURVEY_%]]</f>
+        <v>0.47368421052631582</v>
+      </c>
+      <c r="V17" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="18" spans="15:27" x14ac:dyDescent="0.25">
+      <c r="O18" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="P18" s="16">
+        <v>0.63</v>
+      </c>
+      <c r="Q18" s="20" cm="1">
+        <f t="array" ref="Q18">sleep_m_m_total</f>
+        <v>98</v>
+      </c>
+      <c r="R18" s="19">
+        <f>100/Table10[[#This Row],[MARKER_MAX]]*Table10[[#This Row],[MARKER_%]]</f>
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="S18" s="16">
+        <v>0.27</v>
+      </c>
+      <c r="T18" s="20" cm="1">
+        <f t="array" ref="T18">sleep_survey_total</f>
+        <v>73</v>
+      </c>
+      <c r="U18" s="19">
+        <f>100/Table10[[#This Row],[SURVEY_MAX]]*Table10[[#This Row],[SURVEY_%]]</f>
+        <v>0.36986301369863012</v>
+      </c>
+      <c r="V18" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="8"/>
+      <c r="AA18" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="19" spans="15:27" x14ac:dyDescent="0.25">
+      <c r="O19" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="P19" s="16">
+        <v>0.36</v>
+      </c>
+      <c r="Q19" s="20" cm="1">
+        <f t="array" ref="Q19">cog_m_m_total</f>
+        <v>139</v>
+      </c>
+      <c r="R19" s="19">
+        <f>100/Table10[[#This Row],[MARKER_MAX]]*Table10[[#This Row],[MARKER_%]]</f>
+        <v>0.25899280575539568</v>
+      </c>
+      <c r="S19" s="16">
+        <v>0.54</v>
+      </c>
+      <c r="T19" s="20" cm="1">
+        <f t="array" ref="T19">cog_survey_total</f>
+        <v>42</v>
+      </c>
+      <c r="U19" s="19">
+        <f>100/Table10[[#This Row],[SURVEY_MAX]]*Table10[[#This Row],[SURVEY_%]]</f>
+        <v>1.2857142857142858</v>
+      </c>
+      <c r="V19" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="20" spans="15:27" x14ac:dyDescent="0.25">
+      <c r="O20" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="P20" s="16">
+        <v>0.27</v>
+      </c>
+      <c r="Q20" s="20" cm="1">
+        <f t="array" ref="Q20">stress_m_m_total</f>
+        <v>143</v>
+      </c>
+      <c r="R20" s="19">
+        <f>100/Table10[[#This Row],[MARKER_MAX]]*Table10[[#This Row],[MARKER_%]]</f>
+        <v>0.1888111888111888</v>
+      </c>
+      <c r="S20" s="16">
+        <v>0.63</v>
+      </c>
+      <c r="T20" s="20" cm="1">
+        <f t="array" ref="T20">stress_survey_total</f>
+        <v>66</v>
+      </c>
+      <c r="U20" s="19">
+        <f>100/Table10[[#This Row],[SURVEY_MAX]]*Table10[[#This Row],[SURVEY_%]]</f>
+        <v>0.95454545454545459</v>
+      </c>
+      <c r="V20" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="21" spans="15:27" x14ac:dyDescent="0.25">
+      <c r="O21" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="P21" s="16">
+        <v>0.18</v>
+      </c>
+      <c r="Q21" s="20" cm="1">
+        <f t="array" ref="Q21">connect_m_m_total</f>
+        <v>10</v>
+      </c>
+      <c r="R21" s="19">
+        <f>100/Table10[[#This Row],[MARKER_MAX]]*Table10[[#This Row],[MARKER_%]]</f>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="S21" s="16">
+        <v>0.72</v>
+      </c>
+      <c r="T21" s="20" cm="1">
+        <f t="array" ref="T21">connect_survey_total</f>
+        <v>40</v>
+      </c>
+      <c r="U21" s="19">
+        <f>100/Table10[[#This Row],[SURVEY_MAX]]*Table10[[#This Row],[SURVEY_%]]</f>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="V21" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="22" spans="15:27" x14ac:dyDescent="0.25">
+      <c r="O22" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="P22" s="17">
+        <v>0.495</v>
+      </c>
+      <c r="Q22" s="20" cm="1">
+        <f t="array" ref="Q22">core_m_m_total</f>
+        <v>137</v>
+      </c>
+      <c r="R22" s="19">
+        <f>100/Table10[[#This Row],[MARKER_MAX]]*Table10[[#This Row],[MARKER_%]]</f>
+        <v>0.36131386861313869</v>
+      </c>
+      <c r="S22" s="17">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="T22" s="20" cm="1">
+        <f t="array" ref="T22">core_survey_total</f>
+        <v>382</v>
+      </c>
+      <c r="U22" s="19">
+        <f>100/Table10[[#This Row],[SURVEY_MAX]]*Table10[[#This Row],[SURVEY_%]]</f>
+        <v>0.10602094240837696</v>
+      </c>
+      <c r="V22" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="30" spans="15:27" x14ac:dyDescent="0.25">
+      <c r="U30" s="22"/>
+    </row>
+    <row r="31" spans="15:27" x14ac:dyDescent="0.25">
+      <c r="U31" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26756,10 +27278,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:K75">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>$K3="Yes"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>$K3="No"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Scoring factors.xlsx
+++ b/Scoring factors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2c3d417d339670cb/Documents/GitHub/preliminary_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="183" documentId="8_{1BDF51E7-5E11-4E99-AA4A-5DD579AE109A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DF808A1-8405-4416-9869-AE88FD9BEB99}"/>
+  <xr:revisionPtr revIDLastSave="186" documentId="8_{1BDF51E7-5E11-4E99-AA4A-5DD579AE109A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B55A8F3-6318-44CF-AD70-64FBC2F9F53D}"/>
   <bookViews>
-    <workbookView xWindow="38310" yWindow="0" windowWidth="19380" windowHeight="20970" tabRatio="864" firstSheet="15" activeTab="21" xr2:uid="{7BAB5CB3-E514-4AC3-9A35-1DA93A51C3CB}"/>
+    <workbookView minimized="1" xWindow="38110" yWindow="1950" windowWidth="28800" windowHeight="15370" tabRatio="864" firstSheet="15" activeTab="21" xr2:uid="{7BAB5CB3-E514-4AC3-9A35-1DA93A51C3CB}"/>
   </bookViews>
   <sheets>
     <sheet name="PowerQuery &gt;&gt;&gt;" sheetId="20" r:id="rId1"/>
@@ -2705,7 +2705,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2746,6 +2746,9 @@
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -16547,10 +16550,10 @@
   <sheetPr>
     <tabColor theme="2" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="O15:AA31"/>
+  <dimension ref="O15:AA35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="U30" sqref="U30:U31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="P13" workbookViewId="0">
+      <selection activeCell="U35" sqref="U35:U42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -16853,6 +16856,9 @@
     </row>
     <row r="31" spans="15:27" x14ac:dyDescent="0.25">
       <c r="U31" s="22"/>
+    </row>
+    <row r="35" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R35" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Scoring factors.xlsx
+++ b/Scoring factors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2c3d417d339670cb/Documents/GitHub/preliminary_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="186" documentId="8_{1BDF51E7-5E11-4E99-AA4A-5DD579AE109A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B55A8F3-6318-44CF-AD70-64FBC2F9F53D}"/>
+  <xr:revisionPtr revIDLastSave="187" documentId="8_{1BDF51E7-5E11-4E99-AA4A-5DD579AE109A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A89B638-F9F3-4A2D-BFF3-DE89998076C8}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="38110" yWindow="1950" windowWidth="28800" windowHeight="15370" tabRatio="864" firstSheet="15" activeTab="21" xr2:uid="{7BAB5CB3-E514-4AC3-9A35-1DA93A51C3CB}"/>
+    <workbookView xWindow="38310" yWindow="0" windowWidth="19380" windowHeight="20970" tabRatio="864" firstSheet="15" activeTab="21" xr2:uid="{7BAB5CB3-E514-4AC3-9A35-1DA93A51C3CB}"/>
   </bookViews>
   <sheets>
     <sheet name="PowerQuery &gt;&gt;&gt;" sheetId="20" r:id="rId1"/>
@@ -16550,10 +16550,10 @@
   <sheetPr>
     <tabColor theme="2" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="O15:AA35"/>
+  <dimension ref="O15:AA48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="P13" workbookViewId="0">
-      <selection activeCell="U35" sqref="U35:U42"/>
+      <selection activeCell="V49" sqref="V49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -16857,8 +16857,14 @@
     <row r="31" spans="15:27" x14ac:dyDescent="0.25">
       <c r="U31" s="22"/>
     </row>
-    <row r="35" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="18:22" x14ac:dyDescent="0.25">
       <c r="R35" s="23"/>
+    </row>
+    <row r="48" spans="18:22" x14ac:dyDescent="0.25">
+      <c r="V48" s="21">
+        <f>323-73-112</f>
+        <v>138</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Scoring factors.xlsx
+++ b/Scoring factors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2c3d417d339670cb/Documents/GitHub/preliminary_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="187" documentId="8_{1BDF51E7-5E11-4E99-AA4A-5DD579AE109A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A89B638-F9F3-4A2D-BFF3-DE89998076C8}"/>
+  <xr:revisionPtr revIDLastSave="190" documentId="8_{1BDF51E7-5E11-4E99-AA4A-5DD579AE109A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2DFDF51-ED97-4EEC-88FC-5D1F567D983F}"/>
   <bookViews>
     <workbookView xWindow="38310" yWindow="0" windowWidth="19380" windowHeight="20970" tabRatio="864" firstSheet="15" activeTab="21" xr2:uid="{7BAB5CB3-E514-4AC3-9A35-1DA93A51C3CB}"/>
   </bookViews>
@@ -16550,10 +16550,10 @@
   <sheetPr>
     <tabColor theme="2" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="O15:AA48"/>
+  <dimension ref="O15:AA35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="P13" workbookViewId="0">
-      <selection activeCell="V49" sqref="V49"/>
+      <selection activeCell="S32" sqref="S32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -16857,14 +16857,8 @@
     <row r="31" spans="15:27" x14ac:dyDescent="0.25">
       <c r="U31" s="22"/>
     </row>
-    <row r="35" spans="18:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R35" s="23"/>
-    </row>
-    <row r="48" spans="18:22" x14ac:dyDescent="0.25">
-      <c r="V48" s="21">
-        <f>323-73-112</f>
-        <v>138</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Scoring factors.xlsx
+++ b/Scoring factors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2c3d417d339670cb/Documents/GitHub/preliminary_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="190" documentId="8_{1BDF51E7-5E11-4E99-AA4A-5DD579AE109A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2DFDF51-ED97-4EEC-88FC-5D1F567D983F}"/>
+  <xr:revisionPtr revIDLastSave="198" documentId="8_{1BDF51E7-5E11-4E99-AA4A-5DD579AE109A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83D4BD16-D373-40A9-BD98-69FACA3BCC1F}"/>
   <bookViews>
     <workbookView xWindow="38310" yWindow="0" windowWidth="19380" windowHeight="20970" tabRatio="864" firstSheet="15" activeTab="21" xr2:uid="{7BAB5CB3-E514-4AC3-9A35-1DA93A51C3CB}"/>
   </bookViews>
@@ -16553,7 +16553,7 @@
   <dimension ref="O15:AA35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="P13" workbookViewId="0">
-      <selection activeCell="S32" sqref="S32"/>
+      <selection activeCell="T49" sqref="T49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
